--- a/Proyecto/Limpiado de datos y toma de decisiones/XLSX/Split/Denegados5.xlsx
+++ b/Proyecto/Limpiado de datos y toma de decisiones/XLSX/Split/Denegados5.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI41"/>
+  <dimension ref="A1:AI60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -905,13 +905,13 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>100716</v>
+        <v>100472</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -920,16 +920,16 @@
         <v>135000</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G5">
-        <v>761067</v>
+        <v>545040</v>
       </c>
       <c r="H5">
-        <v>60259.5</v>
+        <v>26509.5</v>
       </c>
       <c r="I5">
-        <v>657000</v>
+        <v>450000</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Commercial associate</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -953,41 +953,46 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>With parents</t>
+          <t>House / apartment</t>
         </is>
       </c>
       <c r="O5">
-        <v>0.018801</v>
+        <v>0.008473999999999999</v>
       </c>
       <c r="P5">
-        <v>-11981</v>
+        <v>-13923</v>
       </c>
       <c r="Q5">
-        <v>-2419</v>
+        <v>-519</v>
       </c>
       <c r="R5">
-        <v>-5181</v>
+        <v>-10704</v>
       </c>
       <c r="S5">
-        <v>-3173</v>
+        <v>-4739</v>
       </c>
       <c r="T5">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="U5">
         <v>1</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <v>1</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
         <v>0</v>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Laborers</t>
+        </is>
       </c>
       <c r="AA5">
         <v>3</v>
@@ -997,33 +1002,33 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>SATURDAY</t>
+          <t>THURSDAY</t>
         </is>
       </c>
       <c r="AD5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>Business Entity Type 3</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="AF5">
-        <v>0.09279999999999999</v>
+        <v>0.0619</v>
       </c>
       <c r="AG5">
-        <v>-1604</v>
+        <v>-2527</v>
       </c>
       <c r="AH5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>100831</v>
+        <v>100716</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1032,26 +1037,26 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>67500</v>
+        <v>135000</v>
       </c>
       <c r="F6">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>497520</v>
+        <v>761067</v>
       </c>
       <c r="H6">
-        <v>33376.5</v>
+        <v>60259.5</v>
       </c>
       <c r="I6">
-        <v>450000</v>
+        <v>657000</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Children</t>
+          <t>Unaccompanied</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1061,7 +1066,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Higher education</t>
+          <t>Secondary / secondary special</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1071,26 +1076,26 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>House / apartment</t>
+          <t>With parents</t>
         </is>
       </c>
       <c r="O6">
-        <v>0.00702</v>
+        <v>0.018801</v>
       </c>
       <c r="P6">
-        <v>-10237</v>
+        <v>-11981</v>
       </c>
       <c r="Q6">
-        <v>-1563</v>
+        <v>-2419</v>
       </c>
       <c r="R6">
-        <v>-318</v>
+        <v>-5181</v>
       </c>
       <c r="S6">
-        <v>-2913</v>
+        <v>-3173</v>
       </c>
       <c r="T6">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="U6">
         <v>1</v>
@@ -1107,13 +1112,8 @@
       <c r="Y6">
         <v>0</v>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>Laborers</t>
-        </is>
-      </c>
       <c r="AA6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB6">
         <v>2</v>
@@ -1124,21 +1124,21 @@
         </is>
       </c>
       <c r="AD6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>Industry: type 9</t>
+          <t>Business Entity Type 3</t>
         </is>
       </c>
       <c r="AF6">
-        <v>0.0907</v>
+        <v>0.09279999999999999</v>
       </c>
       <c r="AG6">
-        <v>-1104</v>
+        <v>-1604</v>
       </c>
       <c r="AH6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>101004</v>
+        <v>100831</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1155,26 +1155,26 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>112500</v>
+        <v>67500</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G7">
-        <v>1215000</v>
+        <v>497520</v>
       </c>
       <c r="H7">
-        <v>84694.5</v>
+        <v>33376.5</v>
       </c>
       <c r="I7">
-        <v>1215000</v>
+        <v>450000</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Unaccompanied</t>
+          <t>Children</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Secondary / secondary special</t>
+          <t>Higher education</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1198,22 +1198,22 @@
         </is>
       </c>
       <c r="O7">
-        <v>0.005144</v>
+        <v>0.00702</v>
       </c>
       <c r="P7">
-        <v>-15044</v>
+        <v>-10237</v>
       </c>
       <c r="Q7">
-        <v>-197</v>
+        <v>-1563</v>
       </c>
       <c r="R7">
-        <v>-4570</v>
+        <v>-318</v>
       </c>
       <c r="S7">
-        <v>-4835</v>
+        <v>-2913</v>
       </c>
       <c r="T7">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="U7">
         <v>1</v>
@@ -1236,40 +1236,40 @@
         </is>
       </c>
       <c r="AA7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB7">
         <v>2</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>THURSDAY</t>
+          <t>SATURDAY</t>
         </is>
       </c>
       <c r="AD7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>Postal</t>
+          <t>Industry: type 9</t>
         </is>
       </c>
       <c r="AF7">
-        <v>0.1237</v>
+        <v>0.0907</v>
       </c>
       <c r="AG7">
-        <v>-672</v>
+        <v>-1104</v>
       </c>
       <c r="AH7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>101068</v>
+        <v>101004</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1278,22 +1278,22 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>67500</v>
+        <v>112500</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>900000</v>
+        <v>1215000</v>
       </c>
       <c r="H8">
-        <v>35824.5</v>
+        <v>84694.5</v>
       </c>
       <c r="I8">
-        <v>900000</v>
+        <v>1215000</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Commercial associate</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1321,22 +1321,22 @@
         </is>
       </c>
       <c r="O8">
-        <v>0.028663</v>
+        <v>0.005144</v>
       </c>
       <c r="P8">
-        <v>-14300</v>
+        <v>-15044</v>
       </c>
       <c r="Q8">
-        <v>-1264</v>
+        <v>-197</v>
       </c>
       <c r="R8">
-        <v>-3049</v>
+        <v>-4570</v>
       </c>
       <c r="S8">
-        <v>-4664</v>
+        <v>-4835</v>
       </c>
       <c r="T8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U8">
         <v>1</v>
@@ -1359,40 +1359,40 @@
         </is>
       </c>
       <c r="AA8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB8">
         <v>2</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>SATURDAY</t>
+          <t>THURSDAY</t>
         </is>
       </c>
       <c r="AD8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>Industry: type 7</t>
+          <t>Postal</t>
         </is>
       </c>
       <c r="AF8">
-        <v>0.1485</v>
+        <v>0.1237</v>
       </c>
       <c r="AG8">
-        <v>-2877</v>
+        <v>-672</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>101110</v>
+        <v>101068</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>135000</v>
+        <v>67500</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G9">
-        <v>755190</v>
+        <v>900000</v>
       </c>
       <c r="H9">
-        <v>31995</v>
+        <v>35824.5</v>
       </c>
       <c r="I9">
-        <v>675000</v>
+        <v>900000</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1425,12 +1425,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Commercial associate</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Higher education</t>
+          <t>Secondary / secondary special</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1444,22 +1444,22 @@
         </is>
       </c>
       <c r="O9">
-        <v>0.02461</v>
+        <v>0.028663</v>
       </c>
       <c r="P9">
-        <v>-13529</v>
+        <v>-14300</v>
       </c>
       <c r="Q9">
-        <v>-3764</v>
+        <v>-1264</v>
       </c>
       <c r="R9">
-        <v>-7014</v>
+        <v>-3049</v>
       </c>
       <c r="S9">
-        <v>-2108</v>
+        <v>-4664</v>
       </c>
       <c r="T9">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="U9">
         <v>1</v>
@@ -1475,6 +1475,11 @@
       </c>
       <c r="Y9">
         <v>0</v>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>Laborers</t>
+        </is>
       </c>
       <c r="AA9">
         <v>4</v>
@@ -1484,25 +1489,25 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>FRIDAY</t>
+          <t>SATURDAY</t>
         </is>
       </c>
       <c r="AD9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Industry: type 7</t>
         </is>
       </c>
       <c r="AF9">
-        <v>0.0227</v>
+        <v>0.1485</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>-2877</v>
       </c>
       <c r="AH9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -1510,7 +1515,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>101139</v>
+        <v>101110</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1519,22 +1524,22 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>112500</v>
+        <v>135000</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>679500</v>
+        <v>755190</v>
       </c>
       <c r="H10">
-        <v>19867.5</v>
+        <v>31995</v>
       </c>
       <c r="I10">
-        <v>679500</v>
+        <v>675000</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1543,7 +1548,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>State servant</t>
+          <t>Commercial associate</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1553,7 +1558,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Civil marriage</t>
+          <t>Married</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1562,22 +1567,22 @@
         </is>
       </c>
       <c r="O10">
-        <v>0.026392</v>
+        <v>0.02461</v>
       </c>
       <c r="P10">
-        <v>-11944</v>
+        <v>-13529</v>
       </c>
       <c r="Q10">
-        <v>-3319</v>
+        <v>-3764</v>
       </c>
       <c r="R10">
-        <v>-1295</v>
+        <v>-7014</v>
       </c>
       <c r="S10">
-        <v>-4562</v>
+        <v>-2108</v>
       </c>
       <c r="T10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U10">
         <v>1</v>
@@ -1589,43 +1594,38 @@
         <v>1</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>Secretaries</t>
-        </is>
-      </c>
       <c r="AA10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB10">
         <v>2</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>WEDNESDAY</t>
+          <t>FRIDAY</t>
         </is>
       </c>
       <c r="AD10">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>Security Ministries</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="AF10">
-        <v>0.0289</v>
+        <v>0.0227</v>
       </c>
       <c r="AG10">
-        <v>-1396</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI10">
         <v>0</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>102044</v>
+        <v>101119</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1642,22 +1642,22 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>135000</v>
+        <v>202500</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>450000</v>
+        <v>350581.5</v>
       </c>
       <c r="H11">
-        <v>28890</v>
+        <v>34150.5</v>
       </c>
       <c r="I11">
-        <v>450000</v>
+        <v>333000</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Secondary / secondary special</t>
+          <t>Higher education</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1685,19 +1685,19 @@
         </is>
       </c>
       <c r="O11">
-        <v>0.028663</v>
+        <v>0.031329</v>
       </c>
       <c r="P11">
-        <v>-13773</v>
+        <v>-10128</v>
       </c>
       <c r="Q11">
-        <v>-4381</v>
+        <v>-3090</v>
       </c>
       <c r="R11">
-        <v>-6268</v>
+        <v>-857</v>
       </c>
       <c r="S11">
-        <v>-4452</v>
+        <v>-2792</v>
       </c>
       <c r="T11">
         <v>19</v>
@@ -1712,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1723,32 +1723,32 @@
         </is>
       </c>
       <c r="AA11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB11">
         <v>2</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>FRIDAY</t>
+          <t>TUESDAY</t>
         </is>
       </c>
       <c r="AD11">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Industry: type 5</t>
         </is>
       </c>
       <c r="AF11">
-        <v>0.3649</v>
+        <v>0.07729999999999999</v>
       </c>
       <c r="AG11">
-        <v>-110</v>
+        <v>-2274</v>
       </c>
       <c r="AH11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>102400</v>
+        <v>101139</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1768,19 +1768,19 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>54000</v>
+        <v>112500</v>
       </c>
       <c r="F12">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G12">
-        <v>1078200</v>
+        <v>679500</v>
       </c>
       <c r="H12">
-        <v>31522.5</v>
+        <v>19867.5</v>
       </c>
       <c r="I12">
-        <v>900000</v>
+        <v>679500</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1789,17 +1789,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Pensioner</t>
+          <t>State servant</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Secondary / secondary special</t>
+          <t>Higher education</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Married</t>
+          <t>Civil marriage</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1808,25 +1808,25 @@
         </is>
       </c>
       <c r="O12">
-        <v>0.011703</v>
+        <v>0.026392</v>
       </c>
       <c r="P12">
-        <v>-15911</v>
+        <v>-11944</v>
       </c>
       <c r="Q12">
-        <v>365243</v>
+        <v>-3319</v>
       </c>
       <c r="R12">
-        <v>-10053</v>
+        <v>-1295</v>
       </c>
       <c r="S12">
-        <v>-698</v>
+        <v>-4562</v>
       </c>
       <c r="T12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -1835,10 +1835,15 @@
         <v>1</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12">
         <v>0</v>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>Secretaries</t>
+        </is>
       </c>
       <c r="AA12">
         <v>3</v>
@@ -1848,25 +1853,25 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>SATURDAY</t>
+          <t>WEDNESDAY</t>
         </is>
       </c>
       <c r="AD12">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>XNA</t>
+          <t>Security Ministries</t>
         </is>
       </c>
       <c r="AF12">
-        <v>0.0021</v>
+        <v>0.0289</v>
       </c>
       <c r="AG12">
-        <v>-398</v>
+        <v>-1396</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI12">
         <v>0</v>
@@ -1874,7 +1879,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>102515</v>
+        <v>101817</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1886,68 +1891,68 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>130500</v>
+        <v>180000</v>
       </c>
       <c r="F13">
+        <v>45</v>
+      </c>
+      <c r="G13">
+        <v>1078200</v>
+      </c>
+      <c r="H13">
+        <v>31653</v>
+      </c>
+      <c r="I13">
+        <v>900000</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Higher education</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O13">
+        <v>0.031329</v>
+      </c>
+      <c r="P13">
+        <v>-17541</v>
+      </c>
+      <c r="Q13">
+        <v>-789</v>
+      </c>
+      <c r="R13">
+        <v>-7174</v>
+      </c>
+      <c r="S13">
+        <v>-1077</v>
+      </c>
+      <c r="T13">
         <v>15</v>
       </c>
-      <c r="G13">
-        <v>1092190.5</v>
-      </c>
-      <c r="H13">
-        <v>46404</v>
-      </c>
-      <c r="I13">
-        <v>927000</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Unaccompanied</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>State servant</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Academic degree</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Married</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>House / apartment</t>
-        </is>
-      </c>
-      <c r="O13">
-        <v>0.018029</v>
-      </c>
-      <c r="P13">
-        <v>-14740</v>
-      </c>
-      <c r="Q13">
-        <v>-430</v>
-      </c>
-      <c r="R13">
-        <v>-1897</v>
-      </c>
-      <c r="S13">
-        <v>-1179</v>
-      </c>
-      <c r="T13">
-        <v>21</v>
-      </c>
       <c r="U13">
         <v>1</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13">
         <v>1</v>
@@ -1960,36 +1965,36 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>Core staff</t>
+          <t>Drivers</t>
         </is>
       </c>
       <c r="AA13">
         <v>3</v>
       </c>
       <c r="AB13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>TUESDAY</t>
+          <t>MONDAY</t>
         </is>
       </c>
       <c r="AD13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>Government</t>
+          <t>Transport: type 3</t>
         </is>
       </c>
       <c r="AF13">
-        <v>0.0619</v>
+        <v>0.233</v>
       </c>
       <c r="AG13">
-        <v>-817</v>
+        <v>-216</v>
       </c>
       <c r="AH13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI13">
         <v>0</v>
@@ -1997,31 +2002,31 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>102551</v>
+        <v>102044</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>135000</v>
       </c>
       <c r="F14">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>1395000</v>
+        <v>450000</v>
       </c>
       <c r="H14">
-        <v>36927</v>
+        <v>28890</v>
       </c>
       <c r="I14">
-        <v>1395000</v>
+        <v>450000</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -2049,22 +2054,22 @@
         </is>
       </c>
       <c r="O14">
-        <v>0.019689</v>
+        <v>0.028663</v>
       </c>
       <c r="P14">
-        <v>-15117</v>
+        <v>-13773</v>
       </c>
       <c r="Q14">
-        <v>-1441</v>
+        <v>-4381</v>
       </c>
       <c r="R14">
-        <v>-7308</v>
+        <v>-6268</v>
       </c>
       <c r="S14">
-        <v>-5726</v>
+        <v>-4452</v>
       </c>
       <c r="T14">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="U14">
         <v>1</v>
@@ -2076,13 +2081,18 @@
         <v>1</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>Laborers</t>
+        </is>
       </c>
       <c r="AA14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB14">
         <v>2</v>
@@ -2093,57 +2103,57 @@
         </is>
       </c>
       <c r="AD14">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>Business Entity Type 3</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="AF14">
-        <v>0.0459</v>
+        <v>0.3649</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>-110</v>
       </c>
       <c r="AH14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>102734</v>
+        <v>102131</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>135000</v>
+        <v>171000</v>
       </c>
       <c r="F15">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G15">
-        <v>1288350</v>
+        <v>675000</v>
       </c>
       <c r="H15">
-        <v>37800</v>
+        <v>34420.5</v>
       </c>
       <c r="I15">
-        <v>1125000</v>
+        <v>675000</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Unaccompanied</t>
+          <t>Spouse, partner</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2167,70 +2177,70 @@
         </is>
       </c>
       <c r="O15">
-        <v>0.016612</v>
+        <v>0.026392</v>
       </c>
       <c r="P15">
-        <v>-12852</v>
+        <v>-9979</v>
       </c>
       <c r="Q15">
-        <v>-1367</v>
+        <v>-957</v>
       </c>
       <c r="R15">
-        <v>-610</v>
+        <v>-1522</v>
       </c>
       <c r="S15">
-        <v>-2709</v>
+        <v>-2450</v>
       </c>
       <c r="T15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U15">
         <v>1</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15">
         <v>1</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>Core staff</t>
+          <t>Laborers</t>
         </is>
       </c>
       <c r="AA15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB15">
         <v>2</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>THURSDAY</t>
+          <t>WEDNESDAY</t>
         </is>
       </c>
       <c r="AD15">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>Trade: type 7</t>
+          <t>Business Entity Type 3</t>
         </is>
       </c>
       <c r="AF15">
-        <v>0.2454</v>
+        <v>0.2711</v>
       </c>
       <c r="AG15">
-        <v>-1539</v>
+        <v>-568</v>
       </c>
       <c r="AH15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI15">
         <v>0</v>
@@ -2238,7 +2248,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>103178</v>
+        <v>102400</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2250,19 +2260,19 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>99000</v>
+        <v>54000</v>
       </c>
       <c r="F16">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G16">
-        <v>1012500</v>
+        <v>1078200</v>
       </c>
       <c r="H16">
-        <v>37651.5</v>
+        <v>31522.5</v>
       </c>
       <c r="I16">
-        <v>1012500</v>
+        <v>900000</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -2271,7 +2281,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Commercial associate</t>
+          <t>Pensioner</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2281,7 +2291,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Civil marriage</t>
+          <t>Married</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -2290,28 +2300,28 @@
         </is>
       </c>
       <c r="O16">
-        <v>0.018209</v>
+        <v>0.011703</v>
       </c>
       <c r="P16">
-        <v>-14733</v>
+        <v>-15911</v>
       </c>
       <c r="Q16">
-        <v>-1121</v>
+        <v>365243</v>
       </c>
       <c r="R16">
-        <v>-5195</v>
+        <v>-10053</v>
       </c>
       <c r="S16">
-        <v>-4552</v>
+        <v>-698</v>
       </c>
       <c r="T16">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16">
         <v>1</v>
@@ -2321,39 +2331,34 @@
       </c>
       <c r="Y16">
         <v>0</v>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>Sales staff</t>
-        </is>
       </c>
       <c r="AA16">
         <v>3</v>
       </c>
       <c r="AB16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>MONDAY</t>
+          <t>SATURDAY</t>
         </is>
       </c>
       <c r="AD16">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>Business Entity Type 3</t>
+          <t>XNA</t>
         </is>
       </c>
       <c r="AF16">
-        <v>0.2536</v>
+        <v>0.0021</v>
       </c>
       <c r="AG16">
-        <v>-1891</v>
+        <v>-398</v>
       </c>
       <c r="AH16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI16">
         <v>0</v>
@@ -2361,31 +2366,31 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>103297</v>
+        <v>102515</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>202500</v>
+        <v>130500</v>
       </c>
       <c r="F17">
         <v>15</v>
       </c>
       <c r="G17">
-        <v>1258650</v>
+        <v>1092190.5</v>
       </c>
       <c r="H17">
-        <v>53325</v>
+        <v>46404</v>
       </c>
       <c r="I17">
-        <v>1125000</v>
+        <v>927000</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -2394,12 +2399,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Commercial associate</t>
+          <t>State servant</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Secondary / secondary special</t>
+          <t>Academic degree</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -2413,22 +2418,22 @@
         </is>
       </c>
       <c r="O17">
-        <v>0.04622</v>
+        <v>0.018029</v>
       </c>
       <c r="P17">
-        <v>-16775</v>
+        <v>-14740</v>
       </c>
       <c r="Q17">
-        <v>-10178</v>
+        <v>-430</v>
       </c>
       <c r="R17">
-        <v>-7361</v>
+        <v>-1897</v>
       </c>
       <c r="S17">
-        <v>-310</v>
+        <v>-1179</v>
       </c>
       <c r="T17">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="U17">
         <v>1</v>
@@ -2440,43 +2445,43 @@
         <v>1</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>Laborers</t>
+          <t>Core staff</t>
         </is>
       </c>
       <c r="AA17">
         <v>3</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>MONDAY</t>
+          <t>TUESDAY</t>
         </is>
       </c>
       <c r="AD17">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>Industry: type 11</t>
+          <t>Government</t>
         </is>
       </c>
       <c r="AF17">
-        <v>0.2299</v>
+        <v>0.0619</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>-817</v>
       </c>
       <c r="AH17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI17">
         <v>0</v>
@@ -2484,31 +2489,31 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>103714</v>
+        <v>102551</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>166500</v>
+        <v>135000</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G18">
-        <v>445333.5</v>
+        <v>1395000</v>
       </c>
       <c r="H18">
-        <v>48091.5</v>
+        <v>36927</v>
       </c>
       <c r="I18">
-        <v>423000</v>
+        <v>1395000</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -2536,78 +2541,73 @@
         </is>
       </c>
       <c r="O18">
-        <v>0.020713</v>
+        <v>0.019689</v>
       </c>
       <c r="P18">
-        <v>-14288</v>
+        <v>-15117</v>
       </c>
       <c r="Q18">
-        <v>-1364</v>
+        <v>-1441</v>
       </c>
       <c r="R18">
-        <v>-3180</v>
+        <v>-7308</v>
       </c>
       <c r="S18">
-        <v>-5081</v>
+        <v>-5726</v>
       </c>
       <c r="T18">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="U18">
         <v>1</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18">
         <v>1</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>Drivers</t>
-        </is>
+        <v>1</v>
       </c>
       <c r="AA18">
         <v>3</v>
       </c>
       <c r="AB18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>MONDAY</t>
+          <t>FRIDAY</t>
         </is>
       </c>
       <c r="AD18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>Electricity</t>
+          <t>Business Entity Type 3</t>
         </is>
       </c>
       <c r="AF18">
-        <v>0.2134</v>
+        <v>0.0459</v>
       </c>
       <c r="AG18">
         <v>0</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>103715</v>
+        <v>102734</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2616,22 +2616,22 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>135000</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G19">
-        <v>450000</v>
+        <v>1288350</v>
       </c>
       <c r="H19">
-        <v>27324</v>
+        <v>37800</v>
       </c>
       <c r="I19">
-        <v>450000</v>
+        <v>1125000</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Secondary / secondary special</t>
+          <t>Higher education</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2659,52 +2659,52 @@
         </is>
       </c>
       <c r="O19">
-        <v>0.008019</v>
+        <v>0.016612</v>
       </c>
       <c r="P19">
-        <v>-9421</v>
+        <v>-12852</v>
       </c>
       <c r="Q19">
-        <v>-1965</v>
+        <v>-1367</v>
       </c>
       <c r="R19">
-        <v>-541</v>
+        <v>-610</v>
       </c>
       <c r="S19">
-        <v>-1390</v>
+        <v>-2709</v>
       </c>
       <c r="T19">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="U19">
         <v>1</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19">
         <v>1</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>Laborers</t>
+          <t>Core staff</t>
         </is>
       </c>
       <c r="AA19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB19">
         <v>2</v>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>SUNDAY</t>
+          <t>THURSDAY</t>
         </is>
       </c>
       <c r="AD19">
@@ -2712,140 +2712,140 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>Transport: type 3</t>
+          <t>Trade: type 7</t>
         </is>
       </c>
       <c r="AF19">
-        <v>0.09279999999999999</v>
+        <v>0.2454</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>-1539</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI19">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>103798</v>
+        <v>102906</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>180000</v>
+      </c>
+      <c r="F20">
+        <v>30</v>
+      </c>
+      <c r="G20">
+        <v>791532</v>
+      </c>
+      <c r="H20">
+        <v>30798</v>
+      </c>
+      <c r="I20">
+        <v>567000</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Spouse, partner</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O20">
+        <v>0.020246</v>
+      </c>
+      <c r="P20">
+        <v>-15469</v>
+      </c>
+      <c r="Q20">
+        <v>-7210</v>
+      </c>
+      <c r="R20">
+        <v>-523</v>
+      </c>
+      <c r="S20">
+        <v>-4940</v>
+      </c>
+      <c r="T20">
+        <v>13</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>Laborers</t>
+        </is>
+      </c>
+      <c r="AA20">
+        <v>3</v>
+      </c>
+      <c r="AB20">
+        <v>3</v>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>WEDNESDAY</t>
+        </is>
+      </c>
+      <c r="AD20">
+        <v>7</v>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>Industry: type 5</t>
+        </is>
+      </c>
+      <c r="AF20">
+        <v>0.101</v>
+      </c>
+      <c r="AG20">
+        <v>-481</v>
+      </c>
+      <c r="AH20">
         <v>2</v>
-      </c>
-      <c r="E20">
-        <v>112500</v>
-      </c>
-      <c r="F20">
-        <v>15</v>
-      </c>
-      <c r="G20">
-        <v>900000</v>
-      </c>
-      <c r="H20">
-        <v>26446.5</v>
-      </c>
-      <c r="I20">
-        <v>900000</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Family</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Secondary / secondary special</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Married</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>House / apartment</t>
-        </is>
-      </c>
-      <c r="O20">
-        <v>0.019101</v>
-      </c>
-      <c r="P20">
-        <v>-16176</v>
-      </c>
-      <c r="Q20">
-        <v>-1938</v>
-      </c>
-      <c r="R20">
-        <v>-977</v>
-      </c>
-      <c r="S20">
-        <v>-977</v>
-      </c>
-      <c r="T20">
-        <v>35</v>
-      </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>1</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>Drivers</t>
-        </is>
-      </c>
-      <c r="AA20">
-        <v>4</v>
-      </c>
-      <c r="AB20">
-        <v>2</v>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>TUESDAY</t>
-        </is>
-      </c>
-      <c r="AD20">
-        <v>14</v>
-      </c>
-      <c r="AE20" t="inlineStr">
-        <is>
-          <t>Transport: type 3</t>
-        </is>
-      </c>
-      <c r="AF20">
-        <v>0.0969</v>
-      </c>
-      <c r="AG20">
-        <v>-3057</v>
-      </c>
-      <c r="AH20">
-        <v>1</v>
       </c>
       <c r="AI20">
         <v>0</v>
@@ -2853,31 +2853,31 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>104819</v>
+        <v>103089</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>90000</v>
+        <v>77625</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G21">
-        <v>239850</v>
+        <v>312768</v>
       </c>
       <c r="H21">
-        <v>23719.5</v>
+        <v>17095.5</v>
       </c>
       <c r="I21">
-        <v>225000</v>
+        <v>270000</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Commercial associate</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2905,70 +2905,70 @@
         </is>
       </c>
       <c r="O21">
-        <v>0.031329</v>
+        <v>0.003818</v>
       </c>
       <c r="P21">
-        <v>-14119</v>
+        <v>-14643</v>
       </c>
       <c r="Q21">
-        <v>-4784</v>
+        <v>-164</v>
       </c>
       <c r="R21">
-        <v>-4084</v>
+        <v>-5117</v>
       </c>
       <c r="S21">
-        <v>-4903</v>
+        <v>-4244</v>
       </c>
       <c r="T21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U21">
         <v>1</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
         <v>1</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>Core staff</t>
+          <t>High skill tech staff</t>
         </is>
       </c>
       <c r="AA21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB21">
         <v>2</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>SATURDAY</t>
+          <t>WEDNESDAY</t>
         </is>
       </c>
       <c r="AD21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="AF21">
-        <v>0.08199999999999999</v>
+        <v>0.0619</v>
       </c>
       <c r="AG21">
-        <v>-2</v>
+        <v>-732</v>
       </c>
       <c r="AH21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI21">
         <v>0</v>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>104874</v>
+        <v>103178</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2988,19 +2988,19 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>112500</v>
+        <v>99000</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G22">
-        <v>961146</v>
+        <v>1012500</v>
       </c>
       <c r="H22">
-        <v>28233</v>
+        <v>37651.5</v>
       </c>
       <c r="I22">
-        <v>688500</v>
+        <v>1012500</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Commercial associate</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Married</t>
+          <t>Civil marriage</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="O22">
-        <v>0.01885</v>
+        <v>0.018209</v>
       </c>
       <c r="P22">
-        <v>-15036</v>
+        <v>-14733</v>
       </c>
       <c r="Q22">
-        <v>-1038</v>
+        <v>-1121</v>
       </c>
       <c r="R22">
-        <v>-4409</v>
+        <v>-5195</v>
       </c>
       <c r="S22">
-        <v>-1652</v>
+        <v>-4552</v>
       </c>
       <c r="T22">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="U22">
         <v>1</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22">
         <v>1</v>
@@ -3069,15 +3069,15 @@
         <v>3</v>
       </c>
       <c r="AB22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>THURSDAY</t>
+          <t>MONDAY</t>
         </is>
       </c>
       <c r="AD22">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
@@ -3085,13 +3085,13 @@
         </is>
       </c>
       <c r="AF22">
-        <v>0.1515</v>
+        <v>0.2536</v>
       </c>
       <c r="AG22">
-        <v>-1142</v>
+        <v>-1891</v>
       </c>
       <c r="AH22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI22">
         <v>0</v>
@@ -3099,31 +3099,31 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>105200</v>
+        <v>103297</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>157500</v>
+        <v>202500</v>
       </c>
       <c r="F23">
         <v>15</v>
       </c>
       <c r="G23">
-        <v>732834</v>
+        <v>1258650</v>
       </c>
       <c r="H23">
-        <v>46962</v>
+        <v>53325</v>
       </c>
       <c r="I23">
-        <v>625500</v>
+        <v>1125000</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Commercial associate</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -3147,26 +3147,26 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Municipal apartment</t>
+          <t>House / apartment</t>
         </is>
       </c>
       <c r="O23">
-        <v>0.020713</v>
+        <v>0.04622</v>
       </c>
       <c r="P23">
-        <v>-12518</v>
+        <v>-16775</v>
       </c>
       <c r="Q23">
-        <v>-1135</v>
+        <v>-10178</v>
       </c>
       <c r="R23">
-        <v>-4229</v>
+        <v>-7361</v>
       </c>
       <c r="S23">
-        <v>-4690</v>
+        <v>-310</v>
       </c>
       <c r="T23">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -3178,43 +3178,43 @@
         <v>1</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>Cleaning staff</t>
+          <t>Laborers</t>
         </is>
       </c>
       <c r="AA23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>FRIDAY</t>
+          <t>MONDAY</t>
         </is>
       </c>
       <c r="AD23">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>Business Entity Type 3</t>
+          <t>Industry: type 11</t>
         </is>
       </c>
       <c r="AF23">
-        <v>0.3227</v>
+        <v>0.2299</v>
       </c>
       <c r="AG23">
-        <v>-916</v>
+        <v>0</v>
       </c>
       <c r="AH23">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AI23">
         <v>0</v>
@@ -3222,7 +3222,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>105211</v>
+        <v>103714</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3231,31 +3231,31 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>171000</v>
+        <v>166500</v>
       </c>
       <c r="F24">
         <v>5</v>
       </c>
       <c r="G24">
-        <v>1546020</v>
+        <v>445333.5</v>
       </c>
       <c r="H24">
-        <v>45333</v>
+        <v>48091.5</v>
       </c>
       <c r="I24">
-        <v>1350000</v>
+        <v>423000</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Spouse, partner</t>
+          <t>Unaccompanied</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Commercial associate</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -3274,67 +3274,67 @@
         </is>
       </c>
       <c r="O24">
-        <v>0.030755</v>
+        <v>0.020713</v>
       </c>
       <c r="P24">
-        <v>-13583</v>
+        <v>-14288</v>
       </c>
       <c r="Q24">
-        <v>-316</v>
+        <v>-1364</v>
       </c>
       <c r="R24">
-        <v>-7715</v>
+        <v>-3180</v>
       </c>
       <c r="S24">
-        <v>-4131</v>
+        <v>-5081</v>
       </c>
       <c r="T24">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="U24">
         <v>1</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24">
         <v>1</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>Laborers</t>
+          <t>Drivers</t>
         </is>
       </c>
       <c r="AA24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>WEDNESDAY</t>
+          <t>MONDAY</t>
         </is>
       </c>
       <c r="AD24">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>Insurance</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="AF24">
-        <v>0.1031</v>
+        <v>0.2134</v>
       </c>
       <c r="AG24">
-        <v>-908</v>
+        <v>0</v>
       </c>
       <c r="AH24">
         <v>0</v>
@@ -3345,7 +3345,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>105312</v>
+        <v>103715</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3360,16 +3360,16 @@
         <v>135000</v>
       </c>
       <c r="F25">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G25">
-        <v>1113840</v>
+        <v>450000</v>
       </c>
       <c r="H25">
-        <v>47322</v>
+        <v>27324</v>
       </c>
       <c r="I25">
-        <v>900000</v>
+        <v>450000</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Higher education</t>
+          <t>Secondary / secondary special</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -3397,22 +3397,22 @@
         </is>
       </c>
       <c r="O25">
-        <v>0.018801</v>
+        <v>0.008019</v>
       </c>
       <c r="P25">
-        <v>-16703</v>
+        <v>-9421</v>
       </c>
       <c r="Q25">
-        <v>-3829</v>
+        <v>-1965</v>
       </c>
       <c r="R25">
-        <v>-7871</v>
+        <v>-541</v>
       </c>
       <c r="S25">
-        <v>-233</v>
+        <v>-1390</v>
       </c>
       <c r="T25">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="U25">
         <v>1</v>
@@ -3428,6 +3428,11 @@
       </c>
       <c r="Y25">
         <v>0</v>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>Laborers</t>
+        </is>
       </c>
       <c r="AA25">
         <v>3</v>
@@ -3441,152 +3446,152 @@
         </is>
       </c>
       <c r="AD25">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Transport: type 3</t>
         </is>
       </c>
       <c r="AF25">
-        <v>0.1031</v>
+        <v>0.09279999999999999</v>
       </c>
       <c r="AG25">
-        <v>-623</v>
+        <v>0</v>
       </c>
       <c r="AH25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>105421</v>
+        <v>103759</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>184500</v>
+      </c>
+      <c r="F26">
+        <v>50</v>
+      </c>
+      <c r="G26">
+        <v>854896.5</v>
+      </c>
+      <c r="H26">
+        <v>43780.5</v>
+      </c>
+      <c r="I26">
+        <v>702000</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Municipal apartment</t>
+        </is>
+      </c>
+      <c r="O26">
+        <v>0.010032</v>
+      </c>
+      <c r="P26">
+        <v>-13856</v>
+      </c>
+      <c r="Q26">
+        <v>-1641</v>
+      </c>
+      <c r="R26">
+        <v>-7190</v>
+      </c>
+      <c r="S26">
+        <v>-3797</v>
+      </c>
+      <c r="T26">
+        <v>29</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>Sales staff</t>
+        </is>
+      </c>
+      <c r="AA26">
+        <v>3</v>
+      </c>
+      <c r="AB26">
         <v>2</v>
       </c>
-      <c r="E26">
-        <v>157500</v>
-      </c>
-      <c r="F26">
-        <v>10</v>
-      </c>
-      <c r="G26">
-        <v>755190</v>
-      </c>
-      <c r="H26">
-        <v>33394.5</v>
-      </c>
-      <c r="I26">
-        <v>675000</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Unaccompanied</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Secondary / secondary special</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>Married</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>House / apartment</t>
-        </is>
-      </c>
-      <c r="O26">
-        <v>0.020246</v>
-      </c>
-      <c r="P26">
-        <v>-13350</v>
-      </c>
-      <c r="Q26">
-        <v>-459</v>
-      </c>
-      <c r="R26">
-        <v>-2535</v>
-      </c>
-      <c r="S26">
-        <v>-4494</v>
-      </c>
-      <c r="T26">
-        <v>16</v>
-      </c>
-      <c r="U26">
-        <v>1</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>1</v>
-      </c>
-      <c r="X26">
-        <v>1</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>High skill tech staff</t>
-        </is>
-      </c>
-      <c r="AA26">
-        <v>4</v>
-      </c>
-      <c r="AB26">
-        <v>3</v>
-      </c>
       <c r="AC26" t="inlineStr">
         <is>
           <t>THURSDAY</t>
         </is>
       </c>
       <c r="AD26">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>Trade: type 3</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="AF26">
-        <v>0.201</v>
+        <v>0.1711</v>
       </c>
       <c r="AG26">
-        <v>-1943</v>
+        <v>-1934</v>
       </c>
       <c r="AH26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>105768</v>
+        <v>103798</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3595,66 +3600,66 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>162000</v>
+        <v>112500</v>
       </c>
       <c r="F27">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>900000</v>
+      </c>
+      <c r="H27">
+        <v>26446.5</v>
+      </c>
+      <c r="I27">
+        <v>900000</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O27">
+        <v>0.019101</v>
+      </c>
+      <c r="P27">
+        <v>-16176</v>
+      </c>
+      <c r="Q27">
+        <v>-1938</v>
+      </c>
+      <c r="R27">
+        <v>-977</v>
+      </c>
+      <c r="S27">
+        <v>-977</v>
+      </c>
+      <c r="T27">
         <v>35</v>
       </c>
-      <c r="G27">
-        <v>514777.5</v>
-      </c>
-      <c r="H27">
-        <v>50278.5</v>
-      </c>
-      <c r="I27">
-        <v>477000</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Unaccompanied</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Secondary / secondary special</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>Married</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>House / apartment</t>
-        </is>
-      </c>
-      <c r="O27">
-        <v>0.018029</v>
-      </c>
-      <c r="P27">
-        <v>-14163</v>
-      </c>
-      <c r="Q27">
-        <v>-1834</v>
-      </c>
-      <c r="R27">
-        <v>-4346</v>
-      </c>
-      <c r="S27">
-        <v>-4346</v>
-      </c>
-      <c r="T27">
-        <v>30</v>
-      </c>
       <c r="U27">
         <v>1</v>
       </c>
@@ -3672,14 +3677,14 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>Managers</t>
+          <t>Drivers</t>
         </is>
       </c>
       <c r="AA27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
@@ -3687,53 +3692,53 @@
         </is>
       </c>
       <c r="AD27">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Transport: type 3</t>
         </is>
       </c>
       <c r="AF27">
-        <v>0.0825</v>
+        <v>0.0969</v>
       </c>
       <c r="AG27">
-        <v>-1816</v>
+        <v>-3057</v>
       </c>
       <c r="AH27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>105799</v>
+        <v>104356</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>135000</v>
+        <v>117000</v>
       </c>
       <c r="F28">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G28">
-        <v>545040</v>
+        <v>453514.5</v>
       </c>
       <c r="H28">
-        <v>31419</v>
+        <v>27535.5</v>
       </c>
       <c r="I28">
-        <v>450000</v>
+        <v>391500</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -3742,12 +3747,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>State servant</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Higher education</t>
+          <t>Secondary / secondary special</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -3761,22 +3766,22 @@
         </is>
       </c>
       <c r="O28">
-        <v>0.006305</v>
+        <v>0.006007999999999999</v>
       </c>
       <c r="P28">
-        <v>-13634</v>
+        <v>-13027</v>
       </c>
       <c r="Q28">
-        <v>-6495</v>
+        <v>-2956</v>
       </c>
       <c r="R28">
-        <v>-3294</v>
+        <v>-4898</v>
       </c>
       <c r="S28">
-        <v>-4677</v>
+        <v>-4692</v>
       </c>
       <c r="T28">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="U28">
         <v>1</v>
@@ -3795,36 +3800,36 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>Core staff</t>
+          <t>Drivers</t>
         </is>
       </c>
       <c r="AA28">
         <v>3</v>
       </c>
       <c r="AB28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>FRIDAY</t>
+          <t>WEDNESDAY</t>
         </is>
       </c>
       <c r="AD28">
+        <v>9</v>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>Self-employed</t>
+        </is>
+      </c>
+      <c r="AF28">
+        <v>0.0825</v>
+      </c>
+      <c r="AG28">
+        <v>-1733</v>
+      </c>
+      <c r="AH28">
         <v>5</v>
-      </c>
-      <c r="AE28" t="inlineStr">
-        <is>
-          <t>Government</t>
-        </is>
-      </c>
-      <c r="AF28">
-        <v>0.0567</v>
-      </c>
-      <c r="AG28">
-        <v>-1445</v>
-      </c>
-      <c r="AH28">
-        <v>1</v>
       </c>
       <c r="AI28">
         <v>0</v>
@@ -3832,40 +3837,40 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>105919</v>
+        <v>104637</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>180000</v>
+        <v>157500</v>
       </c>
       <c r="F29">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G29">
-        <v>540000</v>
+        <v>288873</v>
       </c>
       <c r="H29">
-        <v>39294</v>
+        <v>18589.5</v>
       </c>
       <c r="I29">
-        <v>540000</v>
+        <v>238500</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Unaccompanied</t>
+          <t>Spouse, partner</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Commercial associate</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -3880,74 +3885,74 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>With parents</t>
+          <t>House / apartment</t>
         </is>
       </c>
       <c r="O29">
-        <v>0.010643</v>
+        <v>0.020246</v>
       </c>
       <c r="P29">
-        <v>-10442</v>
+        <v>-17782</v>
       </c>
       <c r="Q29">
-        <v>-334</v>
+        <v>-270</v>
       </c>
       <c r="R29">
-        <v>-5317</v>
+        <v>-5386</v>
       </c>
       <c r="S29">
-        <v>-2857</v>
+        <v>-1327</v>
       </c>
       <c r="T29">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="U29">
         <v>1</v>
       </c>
       <c r="V29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29">
         <v>1</v>
       </c>
       <c r="X29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>Security staff</t>
+          <t>Drivers</t>
         </is>
       </c>
       <c r="AA29">
         <v>3</v>
       </c>
       <c r="AB29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>TUESDAY</t>
+          <t>MONDAY</t>
         </is>
       </c>
       <c r="AD29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Government</t>
         </is>
       </c>
       <c r="AF29">
-        <v>0.09279999999999999</v>
+        <v>0.0021</v>
       </c>
       <c r="AG29">
-        <v>-295</v>
+        <v>-30</v>
       </c>
       <c r="AH29">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AI29">
         <v>0</v>
@@ -3955,7 +3960,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>106004</v>
+        <v>104819</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3967,19 +3972,19 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>112500</v>
+        <v>90000</v>
       </c>
       <c r="F30">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G30">
-        <v>720000</v>
+        <v>239850</v>
       </c>
       <c r="H30">
-        <v>23926.5</v>
+        <v>23719.5</v>
       </c>
       <c r="I30">
-        <v>720000</v>
+        <v>225000</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -4007,22 +4012,22 @@
         </is>
       </c>
       <c r="O30">
-        <v>0.001333</v>
+        <v>0.031329</v>
       </c>
       <c r="P30">
-        <v>-15551</v>
+        <v>-14119</v>
       </c>
       <c r="Q30">
-        <v>-8478</v>
+        <v>-4784</v>
       </c>
       <c r="R30">
-        <v>-5626</v>
+        <v>-4084</v>
       </c>
       <c r="S30">
-        <v>-4585</v>
+        <v>-4903</v>
       </c>
       <c r="T30">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -4041,18 +4046,18 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>Medicine staff</t>
+          <t>Core staff</t>
         </is>
       </c>
       <c r="AA30">
         <v>3</v>
       </c>
       <c r="AB30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>FRIDAY</t>
+          <t>SATURDAY</t>
         </is>
       </c>
       <c r="AD30">
@@ -4060,17 +4065,17 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>Medicine</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="AF30">
-        <v>0.0608</v>
+        <v>0.08199999999999999</v>
       </c>
       <c r="AG30">
-        <v>-2470</v>
+        <v>-2</v>
       </c>
       <c r="AH30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI30">
         <v>0</v>
@@ -4078,7 +4083,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>106543</v>
+        <v>104874</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4090,19 +4095,19 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>135000</v>
+        <v>112500</v>
       </c>
       <c r="F31">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="G31">
-        <v>1288350</v>
+        <v>961146</v>
       </c>
       <c r="H31">
-        <v>41692.5</v>
+        <v>28233</v>
       </c>
       <c r="I31">
-        <v>1125000</v>
+        <v>688500</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -4130,22 +4135,22 @@
         </is>
       </c>
       <c r="O31">
-        <v>0.006305</v>
+        <v>0.01885</v>
       </c>
       <c r="P31">
-        <v>-12797</v>
+        <v>-15036</v>
       </c>
       <c r="Q31">
-        <v>-1861</v>
+        <v>-1038</v>
       </c>
       <c r="R31">
-        <v>-4037</v>
+        <v>-4409</v>
       </c>
       <c r="S31">
-        <v>-2356</v>
+        <v>-1652</v>
       </c>
       <c r="T31">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -4164,33 +4169,33 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>Private service staff</t>
+          <t>Sales staff</t>
         </is>
       </c>
       <c r="AA31">
         <v>3</v>
       </c>
       <c r="AB31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>MONDAY</t>
+          <t>THURSDAY</t>
         </is>
       </c>
       <c r="AD31">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Business Entity Type 3</t>
         </is>
       </c>
       <c r="AF31">
-        <v>0.0278</v>
+        <v>0.1515</v>
       </c>
       <c r="AG31">
-        <v>-1750</v>
+        <v>-1142</v>
       </c>
       <c r="AH31">
         <v>2</v>
@@ -4201,35 +4206,35 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>106639</v>
+        <v>104980</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>99000</v>
+        <v>202500</v>
       </c>
       <c r="F32">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G32">
-        <v>552555</v>
+        <v>675000</v>
       </c>
       <c r="H32">
-        <v>29569.5</v>
+        <v>53460</v>
       </c>
       <c r="I32">
-        <v>477000</v>
+        <v>675000</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Unaccompanied</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -4244,7 +4249,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Civil marriage</t>
+          <t>Married</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -4253,22 +4258,22 @@
         </is>
       </c>
       <c r="O32">
-        <v>0.006207</v>
+        <v>0.026392</v>
       </c>
       <c r="P32">
-        <v>-15378</v>
+        <v>-11391</v>
       </c>
       <c r="Q32">
-        <v>-2843</v>
+        <v>-401</v>
       </c>
       <c r="R32">
-        <v>-5933</v>
+        <v>-199</v>
       </c>
       <c r="S32">
-        <v>-4400</v>
+        <v>-355</v>
       </c>
       <c r="T32">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U32">
         <v>1</v>
@@ -4287,7 +4292,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>Sales staff</t>
+          <t>Drivers</t>
         </is>
       </c>
       <c r="AA32">
@@ -4298,25 +4303,25 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>TUESDAY</t>
+          <t>MONDAY</t>
         </is>
       </c>
       <c r="AD32">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="AF32">
-        <v>0.09279999999999999</v>
+        <v>0.0866</v>
       </c>
       <c r="AG32">
-        <v>-397</v>
+        <v>-1265</v>
       </c>
       <c r="AH32">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AI32">
         <v>0</v>
@@ -4324,31 +4329,31 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>106703</v>
+        <v>105200</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>135000</v>
+        <v>157500</v>
       </c>
       <c r="F33">
         <v>15</v>
       </c>
       <c r="G33">
-        <v>679500</v>
+        <v>732834</v>
       </c>
       <c r="H33">
-        <v>27076.5</v>
+        <v>46962</v>
       </c>
       <c r="I33">
-        <v>679500</v>
+        <v>625500</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -4362,7 +4367,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Higher education</t>
+          <t>Secondary / secondary special</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -4372,44 +4377,49 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>House / apartment</t>
+          <t>Municipal apartment</t>
         </is>
       </c>
       <c r="O33">
         <v>0.020713</v>
       </c>
       <c r="P33">
-        <v>-15760</v>
+        <v>-12518</v>
       </c>
       <c r="Q33">
-        <v>-4658</v>
+        <v>-1135</v>
       </c>
       <c r="R33">
-        <v>-2723</v>
+        <v>-4229</v>
       </c>
       <c r="S33">
-        <v>-4092</v>
+        <v>-4690</v>
       </c>
       <c r="T33">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="U33">
         <v>1</v>
       </c>
       <c r="V33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33">
         <v>1</v>
       </c>
       <c r="X33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>Cleaning staff</t>
+        </is>
+      </c>
       <c r="AA33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB33">
         <v>3</v>
@@ -4420,21 +4430,21 @@
         </is>
       </c>
       <c r="AD33">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>Medicine</t>
+          <t>Business Entity Type 3</t>
         </is>
       </c>
       <c r="AF33">
-        <v>0.0722</v>
+        <v>0.3227</v>
       </c>
       <c r="AG33">
-        <v>-1651</v>
+        <v>-916</v>
       </c>
       <c r="AH33">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI33">
         <v>0</v>
@@ -4442,7 +4452,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>106856</v>
+        <v>105211</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4451,31 +4461,31 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34">
-        <v>112500</v>
+        <v>171000</v>
       </c>
       <c r="F34">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="G34">
-        <v>1133748</v>
+        <v>1546020</v>
       </c>
       <c r="H34">
-        <v>36702</v>
+        <v>45333</v>
       </c>
       <c r="I34">
-        <v>990000</v>
+        <v>1350000</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Unaccompanied</t>
+          <t>Spouse, partner</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Commercial associate</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -4490,26 +4500,26 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Municipal apartment</t>
+          <t>House / apartment</t>
         </is>
       </c>
       <c r="O34">
-        <v>0.007114</v>
+        <v>0.030755</v>
       </c>
       <c r="P34">
-        <v>-11165</v>
+        <v>-13583</v>
       </c>
       <c r="Q34">
-        <v>-511</v>
+        <v>-316</v>
       </c>
       <c r="R34">
-        <v>-3823</v>
+        <v>-7715</v>
       </c>
       <c r="S34">
-        <v>-1373</v>
+        <v>-4131</v>
       </c>
       <c r="T34">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -4532,14 +4542,14 @@
         </is>
       </c>
       <c r="AA34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB34">
         <v>2</v>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>SATURDAY</t>
+          <t>WEDNESDAY</t>
         </is>
       </c>
       <c r="AD34">
@@ -4547,17 +4557,17 @@
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>Transport: type 4</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="AF34">
-        <v>0.0113</v>
+        <v>0.1031</v>
       </c>
       <c r="AG34">
-        <v>-1633</v>
+        <v>-908</v>
       </c>
       <c r="AH34">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI34">
         <v>0</v>
@@ -4565,45 +4575,45 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>107241</v>
+        <v>105226</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35">
-        <v>81000</v>
+        <v>121500</v>
       </c>
       <c r="F35">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G35">
-        <v>450000</v>
+        <v>472500</v>
       </c>
       <c r="H35">
-        <v>21780</v>
+        <v>12991.5</v>
       </c>
       <c r="I35">
-        <v>450000</v>
+        <v>472500</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Unaccompanied</t>
+          <t>Family</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>State servant</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Secondary / secondary special</t>
+          <t>Higher education</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -4617,22 +4627,22 @@
         </is>
       </c>
       <c r="O35">
-        <v>0.01885</v>
+        <v>0.006670999999999999</v>
       </c>
       <c r="P35">
-        <v>-16228</v>
+        <v>-15559</v>
       </c>
       <c r="Q35">
-        <v>-9178</v>
+        <v>-3338</v>
       </c>
       <c r="R35">
-        <v>-5233</v>
+        <v>-2862</v>
       </c>
       <c r="S35">
-        <v>-1730</v>
+        <v>-5928</v>
       </c>
       <c r="T35">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -4651,18 +4661,18 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>Laborers</t>
+          <t>Managers</t>
         </is>
       </c>
       <c r="AA35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB35">
         <v>2</v>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>FRIDAY</t>
+          <t>THURSDAY</t>
         </is>
       </c>
       <c r="AD35">
@@ -4670,17 +4680,17 @@
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>Industry: type 3</t>
+          <t>Security Ministries</t>
         </is>
       </c>
       <c r="AF35">
-        <v>0.008200000000000001</v>
+        <v>0.0485</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>-1484</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI35">
         <v>0</v>
@@ -4688,7 +4698,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>107538</v>
+        <v>105312</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4700,19 +4710,19 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>90000</v>
+        <v>135000</v>
       </c>
       <c r="F36">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G36">
-        <v>558000</v>
+        <v>1113840</v>
       </c>
       <c r="H36">
-        <v>28620</v>
+        <v>47322</v>
       </c>
       <c r="I36">
-        <v>558000</v>
+        <v>900000</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -4726,7 +4736,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Secondary / secondary special</t>
+          <t>Higher education</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -4740,22 +4750,22 @@
         </is>
       </c>
       <c r="O36">
-        <v>0.028663</v>
+        <v>0.018801</v>
       </c>
       <c r="P36">
-        <v>-10568</v>
+        <v>-16703</v>
       </c>
       <c r="Q36">
-        <v>-1561</v>
+        <v>-3829</v>
       </c>
       <c r="R36">
-        <v>-3207</v>
+        <v>-7871</v>
       </c>
       <c r="S36">
-        <v>-1079</v>
+        <v>-233</v>
       </c>
       <c r="T36">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="U36">
         <v>1</v>
@@ -4771,11 +4781,6 @@
       </c>
       <c r="Y36">
         <v>0</v>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>Sales staff</t>
-        </is>
       </c>
       <c r="AA36">
         <v>3</v>
@@ -4785,33 +4790,33 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>SATURDAY</t>
+          <t>SUNDAY</t>
         </is>
       </c>
       <c r="AD36">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>Business Entity Type 3</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="AF36">
-        <v>0.0825</v>
+        <v>0.1031</v>
       </c>
       <c r="AG36">
-        <v>-666</v>
+        <v>-623</v>
       </c>
       <c r="AH36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>107623</v>
+        <v>105421</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4820,19 +4825,19 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>135000</v>
+        <v>157500</v>
       </c>
       <c r="F37">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G37">
-        <v>835380</v>
+        <v>755190</v>
       </c>
       <c r="H37">
-        <v>40320</v>
+        <v>33394.5</v>
       </c>
       <c r="I37">
         <v>675000</v>
@@ -4849,7 +4854,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Incomplete higher</t>
+          <t>Secondary / secondary special</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -4863,22 +4868,22 @@
         </is>
       </c>
       <c r="O37">
-        <v>0.018801</v>
+        <v>0.020246</v>
       </c>
       <c r="P37">
-        <v>-11166</v>
+        <v>-13350</v>
       </c>
       <c r="Q37">
-        <v>-1110</v>
+        <v>-459</v>
       </c>
       <c r="R37">
-        <v>-4567</v>
+        <v>-2535</v>
       </c>
       <c r="S37">
-        <v>-2219</v>
+        <v>-4494</v>
       </c>
       <c r="T37">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="U37">
         <v>1</v>
@@ -4890,212 +4895,212 @@
         <v>1</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37">
         <v>0</v>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>Core staff</t>
+          <t>High skill tech staff</t>
         </is>
       </c>
       <c r="AA37">
+        <v>4</v>
+      </c>
+      <c r="AB37">
         <v>3</v>
       </c>
-      <c r="AB37">
-        <v>2</v>
-      </c>
       <c r="AC37" t="inlineStr">
         <is>
           <t>THURSDAY</t>
         </is>
       </c>
       <c r="AD37">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>Bank</t>
+          <t>Trade: type 3</t>
         </is>
       </c>
       <c r="AF37">
-        <v>0.0258</v>
+        <v>0.201</v>
       </c>
       <c r="AG37">
-        <v>-2517</v>
+        <v>-1943</v>
       </c>
       <c r="AH37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI37">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>107665</v>
+        <v>105768</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>162000</v>
+      </c>
+      <c r="F38">
+        <v>35</v>
+      </c>
+      <c r="G38">
+        <v>514777.5</v>
+      </c>
+      <c r="H38">
+        <v>50278.5</v>
+      </c>
+      <c r="I38">
+        <v>477000</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O38">
+        <v>0.018029</v>
+      </c>
+      <c r="P38">
+        <v>-14163</v>
+      </c>
+      <c r="Q38">
+        <v>-1834</v>
+      </c>
+      <c r="R38">
+        <v>-4346</v>
+      </c>
+      <c r="S38">
+        <v>-4346</v>
+      </c>
+      <c r="T38">
+        <v>30</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>Managers</t>
+        </is>
+      </c>
+      <c r="AA38">
+        <v>3</v>
+      </c>
+      <c r="AB38">
+        <v>3</v>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>TUESDAY</t>
+        </is>
+      </c>
+      <c r="AD38">
+        <v>8</v>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>Self-employed</t>
+        </is>
+      </c>
+      <c r="AF38">
+        <v>0.0825</v>
+      </c>
+      <c r="AG38">
+        <v>-1816</v>
+      </c>
+      <c r="AH38">
         <v>2</v>
       </c>
-      <c r="E38">
-        <v>135000</v>
-      </c>
-      <c r="F38">
-        <v>10</v>
-      </c>
-      <c r="G38">
-        <v>1061599.5</v>
-      </c>
-      <c r="H38">
-        <v>31171.5</v>
-      </c>
-      <c r="I38">
-        <v>927000</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Family</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Higher education</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>Married</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>House / apartment</t>
-        </is>
-      </c>
-      <c r="O38">
-        <v>0.016612</v>
-      </c>
-      <c r="P38">
-        <v>-12334</v>
-      </c>
-      <c r="Q38">
-        <v>-460</v>
-      </c>
-      <c r="R38">
-        <v>-17</v>
-      </c>
-      <c r="S38">
-        <v>-1018</v>
-      </c>
-      <c r="T38">
-        <v>13</v>
-      </c>
-      <c r="U38">
-        <v>1</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>1</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-      <c r="Y38">
-        <v>0</v>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>Accountants</t>
-        </is>
-      </c>
-      <c r="AA38">
-        <v>4</v>
-      </c>
-      <c r="AB38">
-        <v>2</v>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>FRIDAY</t>
-        </is>
-      </c>
-      <c r="AD38">
-        <v>10</v>
-      </c>
-      <c r="AE38" t="inlineStr">
-        <is>
-          <t>Business Entity Type 3</t>
-        </is>
-      </c>
-      <c r="AF38">
-        <v>0.07140000000000001</v>
-      </c>
-      <c r="AG38">
-        <v>-834</v>
-      </c>
-      <c r="AH38">
-        <v>1</v>
-      </c>
       <c r="AI38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>107793</v>
+        <v>105799</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>157500</v>
+        <v>135000</v>
       </c>
       <c r="F39">
         <v>10</v>
       </c>
       <c r="G39">
-        <v>835380</v>
+        <v>545040</v>
       </c>
       <c r="H39">
-        <v>35523</v>
+        <v>31419</v>
       </c>
       <c r="I39">
-        <v>675000</v>
+        <v>450000</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Unaccompanied</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Commercial associate</t>
+          <t>State servant</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Secondary / secondary special</t>
+          <t>Higher education</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -5105,23 +5110,23 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>With parents</t>
+          <t>House / apartment</t>
         </is>
       </c>
       <c r="O39">
-        <v>0.032561</v>
+        <v>0.006305</v>
       </c>
       <c r="P39">
-        <v>-15681</v>
+        <v>-13634</v>
       </c>
       <c r="Q39">
+        <v>-6495</v>
+      </c>
+      <c r="R39">
         <v>-3294</v>
       </c>
-      <c r="R39">
-        <v>-9801</v>
-      </c>
       <c r="S39">
-        <v>-3709</v>
+        <v>-4677</v>
       </c>
       <c r="T39">
         <v>14</v>
@@ -5136,75 +5141,75 @@
         <v>1</v>
       </c>
       <c r="X39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>Drivers</t>
+          <t>Core staff</t>
         </is>
       </c>
       <c r="AA39">
         <v>3</v>
       </c>
       <c r="AB39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>WEDNESDAY</t>
+          <t>FRIDAY</t>
         </is>
       </c>
       <c r="AD39">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>Trade: type 7</t>
+          <t>Government</t>
         </is>
       </c>
       <c r="AF39">
-        <v>0.0103</v>
+        <v>0.0567</v>
       </c>
       <c r="AG39">
-        <v>0</v>
+        <v>-1445</v>
       </c>
       <c r="AH39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>108319</v>
+        <v>105919</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>103500</v>
+        <v>180000</v>
       </c>
       <c r="F40">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G40">
-        <v>922266</v>
+        <v>540000</v>
       </c>
       <c r="H40">
-        <v>39204</v>
+        <v>39294</v>
       </c>
       <c r="I40">
-        <v>810000</v>
+        <v>540000</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -5213,7 +5218,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Commercial associate</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -5223,31 +5228,31 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Civil marriage</t>
+          <t>Married</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>House / apartment</t>
+          <t>With parents</t>
         </is>
       </c>
       <c r="O40">
-        <v>0.009175000000000001</v>
+        <v>0.010643</v>
       </c>
       <c r="P40">
-        <v>-14660</v>
+        <v>-10442</v>
       </c>
       <c r="Q40">
-        <v>-408</v>
+        <v>-334</v>
       </c>
       <c r="R40">
-        <v>-1613</v>
+        <v>-5317</v>
       </c>
       <c r="S40">
-        <v>-2144</v>
+        <v>-2857</v>
       </c>
       <c r="T40">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="U40">
         <v>1</v>
@@ -5266,7 +5271,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>Laborers</t>
+          <t>Security staff</t>
         </is>
       </c>
       <c r="AA40">
@@ -5277,25 +5282,25 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>MONDAY</t>
+          <t>TUESDAY</t>
         </is>
       </c>
       <c r="AD40">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="AF40">
-        <v>0.1124</v>
+        <v>0.09279999999999999</v>
       </c>
       <c r="AG40">
-        <v>-727</v>
+        <v>-295</v>
       </c>
       <c r="AH40">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AI40">
         <v>0</v>
@@ -5303,35 +5308,35 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>108324</v>
+        <v>106004</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41">
-        <v>81000</v>
+        <v>112500</v>
       </c>
       <c r="F41">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G41">
-        <v>814041</v>
+        <v>720000</v>
       </c>
       <c r="H41">
-        <v>23931</v>
+        <v>23926.5</v>
       </c>
       <c r="I41">
-        <v>679500</v>
+        <v>720000</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Unaccompanied</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -5355,22 +5360,22 @@
         </is>
       </c>
       <c r="O41">
-        <v>0.020246</v>
+        <v>0.001333</v>
       </c>
       <c r="P41">
-        <v>-16864</v>
+        <v>-15551</v>
       </c>
       <c r="Q41">
-        <v>-519</v>
+        <v>-8478</v>
       </c>
       <c r="R41">
-        <v>-1737</v>
+        <v>-5626</v>
       </c>
       <c r="S41">
-        <v>-420</v>
+        <v>-4585</v>
       </c>
       <c r="T41">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="U41">
         <v>1</v>
@@ -5389,7 +5394,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>Laborers</t>
+          <t>Medicine staff</t>
         </is>
       </c>
       <c r="AA41">
@@ -5400,27 +5405,2344 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>THURSDAY</t>
+          <t>FRIDAY</t>
         </is>
       </c>
       <c r="AD41">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE41" t="inlineStr">
         <is>
-          <t>Business Entity Type 3</t>
+          <t>Medicine</t>
         </is>
       </c>
       <c r="AF41">
-        <v>0.0954</v>
+        <v>0.0608</v>
       </c>
       <c r="AG41">
-        <v>-1923</v>
+        <v>-2470</v>
       </c>
       <c r="AH41">
         <v>4</v>
       </c>
       <c r="AI41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>106182</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>202500</v>
+      </c>
+      <c r="F42">
+        <v>35</v>
+      </c>
+      <c r="G42">
+        <v>1350000</v>
+      </c>
+      <c r="H42">
+        <v>37125</v>
+      </c>
+      <c r="I42">
+        <v>1350000</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O42">
+        <v>0.008473999999999999</v>
+      </c>
+      <c r="P42">
+        <v>-11826</v>
+      </c>
+      <c r="Q42">
+        <v>-1129</v>
+      </c>
+      <c r="R42">
+        <v>-3392</v>
+      </c>
+      <c r="S42">
+        <v>-4225</v>
+      </c>
+      <c r="T42">
+        <v>12</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>1</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>Managers</t>
+        </is>
+      </c>
+      <c r="AA42">
+        <v>4</v>
+      </c>
+      <c r="AB42">
+        <v>2</v>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>FRIDAY</t>
+        </is>
+      </c>
+      <c r="AD42">
+        <v>15</v>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>Business Entity Type 3</t>
+        </is>
+      </c>
+      <c r="AF42">
+        <v>0.0186</v>
+      </c>
+      <c r="AG42">
+        <v>-1393</v>
+      </c>
+      <c r="AH42">
+        <v>6</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>106543</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>135000</v>
+      </c>
+      <c r="F43">
+        <v>50</v>
+      </c>
+      <c r="G43">
+        <v>1288350</v>
+      </c>
+      <c r="H43">
+        <v>41692.5</v>
+      </c>
+      <c r="I43">
+        <v>1125000</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O43">
+        <v>0.006305</v>
+      </c>
+      <c r="P43">
+        <v>-12797</v>
+      </c>
+      <c r="Q43">
+        <v>-1861</v>
+      </c>
+      <c r="R43">
+        <v>-4037</v>
+      </c>
+      <c r="S43">
+        <v>-2356</v>
+      </c>
+      <c r="T43">
+        <v>13</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>1</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>Private service staff</t>
+        </is>
+      </c>
+      <c r="AA43">
+        <v>3</v>
+      </c>
+      <c r="AB43">
+        <v>3</v>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>MONDAY</t>
+        </is>
+      </c>
+      <c r="AD43">
+        <v>9</v>
+      </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="AF43">
+        <v>0.0278</v>
+      </c>
+      <c r="AG43">
+        <v>-1750</v>
+      </c>
+      <c r="AH43">
+        <v>2</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>106639</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>99000</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>552555</v>
+      </c>
+      <c r="H44">
+        <v>29569.5</v>
+      </c>
+      <c r="I44">
+        <v>477000</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Civil marriage</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O44">
+        <v>0.006207</v>
+      </c>
+      <c r="P44">
+        <v>-15378</v>
+      </c>
+      <c r="Q44">
+        <v>-2843</v>
+      </c>
+      <c r="R44">
+        <v>-5933</v>
+      </c>
+      <c r="S44">
+        <v>-4400</v>
+      </c>
+      <c r="T44">
+        <v>15</v>
+      </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>Sales staff</t>
+        </is>
+      </c>
+      <c r="AA44">
+        <v>3</v>
+      </c>
+      <c r="AB44">
+        <v>2</v>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>TUESDAY</t>
+        </is>
+      </c>
+      <c r="AD44">
+        <v>12</v>
+      </c>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>Self-employed</t>
+        </is>
+      </c>
+      <c r="AF44">
+        <v>0.09279999999999999</v>
+      </c>
+      <c r="AG44">
+        <v>-397</v>
+      </c>
+      <c r="AH44">
+        <v>2</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>106703</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>135000</v>
+      </c>
+      <c r="F45">
+        <v>15</v>
+      </c>
+      <c r="G45">
+        <v>679500</v>
+      </c>
+      <c r="H45">
+        <v>27076.5</v>
+      </c>
+      <c r="I45">
+        <v>679500</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Higher education</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O45">
+        <v>0.020713</v>
+      </c>
+      <c r="P45">
+        <v>-15760</v>
+      </c>
+      <c r="Q45">
+        <v>-4658</v>
+      </c>
+      <c r="R45">
+        <v>-2723</v>
+      </c>
+      <c r="S45">
+        <v>-4092</v>
+      </c>
+      <c r="T45">
+        <v>12</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="V45">
+        <v>1</v>
+      </c>
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>1</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>3</v>
+      </c>
+      <c r="AB45">
+        <v>3</v>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>FRIDAY</t>
+        </is>
+      </c>
+      <c r="AD45">
+        <v>10</v>
+      </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>Medicine</t>
+        </is>
+      </c>
+      <c r="AF45">
+        <v>0.0722</v>
+      </c>
+      <c r="AG45">
+        <v>-1651</v>
+      </c>
+      <c r="AH45">
+        <v>6</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>106856</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>112500</v>
+      </c>
+      <c r="F46">
+        <v>40</v>
+      </c>
+      <c r="G46">
+        <v>1133748</v>
+      </c>
+      <c r="H46">
+        <v>36702</v>
+      </c>
+      <c r="I46">
+        <v>990000</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Municipal apartment</t>
+        </is>
+      </c>
+      <c r="O46">
+        <v>0.007114</v>
+      </c>
+      <c r="P46">
+        <v>-11165</v>
+      </c>
+      <c r="Q46">
+        <v>-511</v>
+      </c>
+      <c r="R46">
+        <v>-3823</v>
+      </c>
+      <c r="S46">
+        <v>-1373</v>
+      </c>
+      <c r="T46">
+        <v>16</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>Laborers</t>
+        </is>
+      </c>
+      <c r="AA46">
+        <v>3</v>
+      </c>
+      <c r="AB46">
+        <v>2</v>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>SATURDAY</t>
+        </is>
+      </c>
+      <c r="AD46">
+        <v>15</v>
+      </c>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>Transport: type 4</t>
+        </is>
+      </c>
+      <c r="AF46">
+        <v>0.0113</v>
+      </c>
+      <c r="AG46">
+        <v>-1633</v>
+      </c>
+      <c r="AH46">
+        <v>7</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>107004</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>135000</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <v>315000</v>
+      </c>
+      <c r="H47">
+        <v>14683.5</v>
+      </c>
+      <c r="I47">
+        <v>315000</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O47">
+        <v>0.009656999999999999</v>
+      </c>
+      <c r="P47">
+        <v>-11873</v>
+      </c>
+      <c r="Q47">
+        <v>-1430</v>
+      </c>
+      <c r="R47">
+        <v>-464</v>
+      </c>
+      <c r="S47">
+        <v>-3517</v>
+      </c>
+      <c r="T47">
+        <v>22</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>1</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>Laborers</t>
+        </is>
+      </c>
+      <c r="AA47">
+        <v>3</v>
+      </c>
+      <c r="AB47">
+        <v>2</v>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>FRIDAY</t>
+        </is>
+      </c>
+      <c r="AD47">
+        <v>17</v>
+      </c>
+      <c r="AE47" t="inlineStr">
+        <is>
+          <t>School</t>
+        </is>
+      </c>
+      <c r="AF47">
+        <v>0.2546</v>
+      </c>
+      <c r="AG47">
+        <v>-147</v>
+      </c>
+      <c r="AH47">
+        <v>1</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>107241</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>81000</v>
+      </c>
+      <c r="F48">
+        <v>20</v>
+      </c>
+      <c r="G48">
+        <v>450000</v>
+      </c>
+      <c r="H48">
+        <v>21780</v>
+      </c>
+      <c r="I48">
+        <v>450000</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O48">
+        <v>0.01885</v>
+      </c>
+      <c r="P48">
+        <v>-16228</v>
+      </c>
+      <c r="Q48">
+        <v>-9178</v>
+      </c>
+      <c r="R48">
+        <v>-5233</v>
+      </c>
+      <c r="S48">
+        <v>-1730</v>
+      </c>
+      <c r="T48">
+        <v>17</v>
+      </c>
+      <c r="U48">
+        <v>1</v>
+      </c>
+      <c r="V48">
+        <v>1</v>
+      </c>
+      <c r="W48">
+        <v>1</v>
+      </c>
+      <c r="X48">
+        <v>1</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>Laborers</t>
+        </is>
+      </c>
+      <c r="AA48">
+        <v>3</v>
+      </c>
+      <c r="AB48">
+        <v>2</v>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>FRIDAY</t>
+        </is>
+      </c>
+      <c r="AD48">
+        <v>12</v>
+      </c>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>Industry: type 3</t>
+        </is>
+      </c>
+      <c r="AF48">
+        <v>0.008200000000000001</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>107533</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>157500</v>
+      </c>
+      <c r="F49">
+        <v>25</v>
+      </c>
+      <c r="G49">
+        <v>521280</v>
+      </c>
+      <c r="H49">
+        <v>31630.5</v>
+      </c>
+      <c r="I49">
+        <v>450000</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Spouse, partner</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O49">
+        <v>0.020246</v>
+      </c>
+      <c r="P49">
+        <v>-10775</v>
+      </c>
+      <c r="Q49">
+        <v>-1031</v>
+      </c>
+      <c r="R49">
+        <v>-2341</v>
+      </c>
+      <c r="S49">
+        <v>-1068</v>
+      </c>
+      <c r="T49">
+        <v>25</v>
+      </c>
+      <c r="U49">
+        <v>1</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>1</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>4</v>
+      </c>
+      <c r="AB49">
+        <v>3</v>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>SATURDAY</t>
+        </is>
+      </c>
+      <c r="AD49">
+        <v>13</v>
+      </c>
+      <c r="AE49" t="inlineStr">
+        <is>
+          <t>Business Entity Type 3</t>
+        </is>
+      </c>
+      <c r="AF49">
+        <v>0.1186</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>1</v>
+      </c>
+      <c r="AI49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>107538</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>90000</v>
+      </c>
+      <c r="F50">
+        <v>25</v>
+      </c>
+      <c r="G50">
+        <v>558000</v>
+      </c>
+      <c r="H50">
+        <v>28620</v>
+      </c>
+      <c r="I50">
+        <v>558000</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O50">
+        <v>0.028663</v>
+      </c>
+      <c r="P50">
+        <v>-10568</v>
+      </c>
+      <c r="Q50">
+        <v>-1561</v>
+      </c>
+      <c r="R50">
+        <v>-3207</v>
+      </c>
+      <c r="S50">
+        <v>-1079</v>
+      </c>
+      <c r="T50">
+        <v>12</v>
+      </c>
+      <c r="U50">
+        <v>1</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>1</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>Sales staff</t>
+        </is>
+      </c>
+      <c r="AA50">
+        <v>3</v>
+      </c>
+      <c r="AB50">
+        <v>2</v>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>SATURDAY</t>
+        </is>
+      </c>
+      <c r="AD50">
+        <v>13</v>
+      </c>
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>Business Entity Type 3</t>
+        </is>
+      </c>
+      <c r="AF50">
+        <v>0.0825</v>
+      </c>
+      <c r="AG50">
+        <v>-666</v>
+      </c>
+      <c r="AH50">
+        <v>4</v>
+      </c>
+      <c r="AI50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>107623</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>135000</v>
+      </c>
+      <c r="F51">
+        <v>20</v>
+      </c>
+      <c r="G51">
+        <v>835380</v>
+      </c>
+      <c r="H51">
+        <v>40320</v>
+      </c>
+      <c r="I51">
+        <v>675000</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Incomplete higher</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O51">
+        <v>0.018801</v>
+      </c>
+      <c r="P51">
+        <v>-11166</v>
+      </c>
+      <c r="Q51">
+        <v>-1110</v>
+      </c>
+      <c r="R51">
+        <v>-4567</v>
+      </c>
+      <c r="S51">
+        <v>-2219</v>
+      </c>
+      <c r="T51">
+        <v>11</v>
+      </c>
+      <c r="U51">
+        <v>1</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>1</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>Core staff</t>
+        </is>
+      </c>
+      <c r="AA51">
+        <v>3</v>
+      </c>
+      <c r="AB51">
+        <v>2</v>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>THURSDAY</t>
+        </is>
+      </c>
+      <c r="AD51">
+        <v>11</v>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="AF51">
+        <v>0.0258</v>
+      </c>
+      <c r="AG51">
+        <v>-2517</v>
+      </c>
+      <c r="AH51">
+        <v>3</v>
+      </c>
+      <c r="AI51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>107665</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>135000</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <v>1061599.5</v>
+      </c>
+      <c r="H52">
+        <v>31171.5</v>
+      </c>
+      <c r="I52">
+        <v>927000</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Higher education</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O52">
+        <v>0.016612</v>
+      </c>
+      <c r="P52">
+        <v>-12334</v>
+      </c>
+      <c r="Q52">
+        <v>-460</v>
+      </c>
+      <c r="R52">
+        <v>-17</v>
+      </c>
+      <c r="S52">
+        <v>-1018</v>
+      </c>
+      <c r="T52">
+        <v>13</v>
+      </c>
+      <c r="U52">
+        <v>1</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>1</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>Accountants</t>
+        </is>
+      </c>
+      <c r="AA52">
+        <v>4</v>
+      </c>
+      <c r="AB52">
+        <v>2</v>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>FRIDAY</t>
+        </is>
+      </c>
+      <c r="AD52">
+        <v>10</v>
+      </c>
+      <c r="AE52" t="inlineStr">
+        <is>
+          <t>Business Entity Type 3</t>
+        </is>
+      </c>
+      <c r="AF52">
+        <v>0.07140000000000001</v>
+      </c>
+      <c r="AG52">
+        <v>-834</v>
+      </c>
+      <c r="AH52">
+        <v>1</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>107793</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>157500</v>
+      </c>
+      <c r="F53">
+        <v>10</v>
+      </c>
+      <c r="G53">
+        <v>835380</v>
+      </c>
+      <c r="H53">
+        <v>35523</v>
+      </c>
+      <c r="I53">
+        <v>675000</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Commercial associate</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>With parents</t>
+        </is>
+      </c>
+      <c r="O53">
+        <v>0.032561</v>
+      </c>
+      <c r="P53">
+        <v>-15681</v>
+      </c>
+      <c r="Q53">
+        <v>-3294</v>
+      </c>
+      <c r="R53">
+        <v>-9801</v>
+      </c>
+      <c r="S53">
+        <v>-3709</v>
+      </c>
+      <c r="T53">
+        <v>14</v>
+      </c>
+      <c r="U53">
+        <v>1</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>1</v>
+      </c>
+      <c r="X53">
+        <v>1</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>Drivers</t>
+        </is>
+      </c>
+      <c r="AA53">
+        <v>3</v>
+      </c>
+      <c r="AB53">
+        <v>1</v>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>WEDNESDAY</t>
+        </is>
+      </c>
+      <c r="AD53">
+        <v>18</v>
+      </c>
+      <c r="AE53" t="inlineStr">
+        <is>
+          <t>Trade: type 7</t>
+        </is>
+      </c>
+      <c r="AF53">
+        <v>0.0103</v>
+      </c>
+      <c r="AG53">
+        <v>0</v>
+      </c>
+      <c r="AH53">
+        <v>3</v>
+      </c>
+      <c r="AI53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>107796</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>135000</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <v>180000</v>
+      </c>
+      <c r="H54">
+        <v>9000</v>
+      </c>
+      <c r="I54">
+        <v>180000</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O54">
+        <v>0.028663</v>
+      </c>
+      <c r="P54">
+        <v>-8747</v>
+      </c>
+      <c r="Q54">
+        <v>-574</v>
+      </c>
+      <c r="R54">
+        <v>-191</v>
+      </c>
+      <c r="S54">
+        <v>-1406</v>
+      </c>
+      <c r="T54">
+        <v>64</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>1</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>3</v>
+      </c>
+      <c r="AB54">
+        <v>2</v>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>WEDNESDAY</t>
+        </is>
+      </c>
+      <c r="AD54">
+        <v>10</v>
+      </c>
+      <c r="AE54" t="inlineStr">
+        <is>
+          <t>Self-employed</t>
+        </is>
+      </c>
+      <c r="AF54">
+        <v>0.09279999999999999</v>
+      </c>
+      <c r="AG54">
+        <v>-1528</v>
+      </c>
+      <c r="AH54">
+        <v>2</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>107878</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>112500</v>
+      </c>
+      <c r="F55">
+        <v>20</v>
+      </c>
+      <c r="G55">
+        <v>337500</v>
+      </c>
+      <c r="H55">
+        <v>16875</v>
+      </c>
+      <c r="I55">
+        <v>337500</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O55">
+        <v>0.026392</v>
+      </c>
+      <c r="P55">
+        <v>-10405</v>
+      </c>
+      <c r="Q55">
+        <v>-1268</v>
+      </c>
+      <c r="R55">
+        <v>-552</v>
+      </c>
+      <c r="S55">
+        <v>-503</v>
+      </c>
+      <c r="T55">
+        <v>12</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>1</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>Private service staff</t>
+        </is>
+      </c>
+      <c r="AA55">
+        <v>3</v>
+      </c>
+      <c r="AB55">
+        <v>2</v>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>THURSDAY</t>
+        </is>
+      </c>
+      <c r="AD55">
+        <v>9</v>
+      </c>
+      <c r="AE55" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="AF55">
+        <v>0.0216</v>
+      </c>
+      <c r="AG55">
+        <v>-149</v>
+      </c>
+      <c r="AH55">
+        <v>3</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>108163</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>67500</v>
+      </c>
+      <c r="F56">
+        <v>25</v>
+      </c>
+      <c r="G56">
+        <v>227520</v>
+      </c>
+      <c r="H56">
+        <v>13189.5</v>
+      </c>
+      <c r="I56">
+        <v>180000</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Higher education</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O56">
+        <v>0.010643</v>
+      </c>
+      <c r="P56">
+        <v>-12019</v>
+      </c>
+      <c r="Q56">
+        <v>-3630</v>
+      </c>
+      <c r="R56">
+        <v>-2466</v>
+      </c>
+      <c r="S56">
+        <v>-2515</v>
+      </c>
+      <c r="T56">
+        <v>23</v>
+      </c>
+      <c r="U56">
+        <v>1</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>1</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>1</v>
+      </c>
+      <c r="AA56">
+        <v>3</v>
+      </c>
+      <c r="AB56">
+        <v>2</v>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>SUNDAY</t>
+        </is>
+      </c>
+      <c r="AD56">
+        <v>11</v>
+      </c>
+      <c r="AE56" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="AF56">
+        <v>0.1495</v>
+      </c>
+      <c r="AG56">
+        <v>-2418</v>
+      </c>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>108256</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>157500</v>
+      </c>
+      <c r="F57">
+        <v>35</v>
+      </c>
+      <c r="G57">
+        <v>814041</v>
+      </c>
+      <c r="H57">
+        <v>26257.5</v>
+      </c>
+      <c r="I57">
+        <v>679500</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Children</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O57">
+        <v>0.0105</v>
+      </c>
+      <c r="P57">
+        <v>-18910</v>
+      </c>
+      <c r="Q57">
+        <v>-4183</v>
+      </c>
+      <c r="R57">
+        <v>-3677</v>
+      </c>
+      <c r="S57">
+        <v>-2337</v>
+      </c>
+      <c r="T57">
+        <v>24</v>
+      </c>
+      <c r="U57">
+        <v>1</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>1</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>Laborers</t>
+        </is>
+      </c>
+      <c r="AA57">
+        <v>3</v>
+      </c>
+      <c r="AB57">
+        <v>3</v>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>WEDNESDAY</t>
+        </is>
+      </c>
+      <c r="AD57">
+        <v>9</v>
+      </c>
+      <c r="AE57" t="inlineStr">
+        <is>
+          <t>Business Entity Type 2</t>
+        </is>
+      </c>
+      <c r="AF57">
+        <v>0.0732</v>
+      </c>
+      <c r="AG57">
+        <v>0</v>
+      </c>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>108319</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>103500</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58">
+        <v>922266</v>
+      </c>
+      <c r="H58">
+        <v>39204</v>
+      </c>
+      <c r="I58">
+        <v>810000</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Civil marriage</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O58">
+        <v>0.009175000000000001</v>
+      </c>
+      <c r="P58">
+        <v>-14660</v>
+      </c>
+      <c r="Q58">
+        <v>-408</v>
+      </c>
+      <c r="R58">
+        <v>-1613</v>
+      </c>
+      <c r="S58">
+        <v>-2144</v>
+      </c>
+      <c r="T58">
+        <v>11</v>
+      </c>
+      <c r="U58">
+        <v>1</v>
+      </c>
+      <c r="V58">
+        <v>1</v>
+      </c>
+      <c r="W58">
+        <v>1</v>
+      </c>
+      <c r="X58">
+        <v>1</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>Laborers</t>
+        </is>
+      </c>
+      <c r="AA58">
+        <v>3</v>
+      </c>
+      <c r="AB58">
+        <v>2</v>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>MONDAY</t>
+        </is>
+      </c>
+      <c r="AD58">
+        <v>19</v>
+      </c>
+      <c r="AE58" t="inlineStr">
+        <is>
+          <t>Self-employed</t>
+        </is>
+      </c>
+      <c r="AF58">
+        <v>0.1124</v>
+      </c>
+      <c r="AG58">
+        <v>-727</v>
+      </c>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>108324</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>81000</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+      <c r="G59">
+        <v>814041</v>
+      </c>
+      <c r="H59">
+        <v>23931</v>
+      </c>
+      <c r="I59">
+        <v>679500</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O59">
+        <v>0.020246</v>
+      </c>
+      <c r="P59">
+        <v>-16864</v>
+      </c>
+      <c r="Q59">
+        <v>-519</v>
+      </c>
+      <c r="R59">
+        <v>-1737</v>
+      </c>
+      <c r="S59">
+        <v>-420</v>
+      </c>
+      <c r="T59">
+        <v>23</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>1</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>Laborers</t>
+        </is>
+      </c>
+      <c r="AA59">
+        <v>3</v>
+      </c>
+      <c r="AB59">
+        <v>3</v>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>THURSDAY</t>
+        </is>
+      </c>
+      <c r="AD59">
+        <v>14</v>
+      </c>
+      <c r="AE59" t="inlineStr">
+        <is>
+          <t>Business Entity Type 3</t>
+        </is>
+      </c>
+      <c r="AF59">
+        <v>0.0954</v>
+      </c>
+      <c r="AG59">
+        <v>-1923</v>
+      </c>
+      <c r="AH59">
+        <v>4</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>108580</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>202500</v>
+      </c>
+      <c r="F60">
+        <v>35</v>
+      </c>
+      <c r="G60">
+        <v>993082.5</v>
+      </c>
+      <c r="H60">
+        <v>42205.5</v>
+      </c>
+      <c r="I60">
+        <v>913500</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Commercial associate</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O60">
+        <v>0.019689</v>
+      </c>
+      <c r="P60">
+        <v>-13171</v>
+      </c>
+      <c r="Q60">
+        <v>-3952</v>
+      </c>
+      <c r="R60">
+        <v>-6616</v>
+      </c>
+      <c r="S60">
+        <v>-2451</v>
+      </c>
+      <c r="T60">
+        <v>11</v>
+      </c>
+      <c r="U60">
+        <v>1</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>1</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>Laborers</t>
+        </is>
+      </c>
+      <c r="AA60">
+        <v>4</v>
+      </c>
+      <c r="AB60">
+        <v>2</v>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>WEDNESDAY</t>
+        </is>
+      </c>
+      <c r="AD60">
+        <v>7</v>
+      </c>
+      <c r="AE60" t="inlineStr">
+        <is>
+          <t>Self-employed</t>
+        </is>
+      </c>
+      <c r="AF60">
+        <v>0.1113</v>
+      </c>
+      <c r="AG60">
+        <v>-1105</v>
+      </c>
+      <c r="AH60">
+        <v>4</v>
+      </c>
+      <c r="AI60">
         <v>0</v>
       </c>
     </row>

--- a/Proyecto/Limpiado de datos y toma de decisiones/XLSX/Split/Denegados5.xlsx
+++ b/Proyecto/Limpiado de datos y toma de decisiones/XLSX/Split/Denegados5.xlsx
@@ -591,10 +591,10 @@
         <v>0.0228</v>
       </c>
       <c r="P2">
-        <v>-10485</v>
+        <v>28</v>
       </c>
       <c r="Q2">
-        <v>-1249</v>
+        <v>3</v>
       </c>
       <c r="R2">
         <v>-4628</v>
@@ -714,10 +714,10 @@
         <v>0.018209</v>
       </c>
       <c r="P3">
-        <v>-14235</v>
+        <v>39</v>
       </c>
       <c r="Q3">
-        <v>-5411</v>
+        <v>14</v>
       </c>
       <c r="R3">
         <v>-2248</v>
@@ -837,10 +837,10 @@
         <v>0.025164</v>
       </c>
       <c r="P4">
-        <v>-12982</v>
+        <v>35</v>
       </c>
       <c r="Q4">
-        <v>-2850</v>
+        <v>7</v>
       </c>
       <c r="R4">
         <v>-3476</v>
@@ -960,10 +960,10 @@
         <v>0.008473999999999999</v>
       </c>
       <c r="P5">
-        <v>-13923</v>
+        <v>38</v>
       </c>
       <c r="Q5">
-        <v>-519</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <v>-10704</v>
@@ -1083,10 +1083,10 @@
         <v>0.018801</v>
       </c>
       <c r="P6">
-        <v>-11981</v>
+        <v>32</v>
       </c>
       <c r="Q6">
-        <v>-2419</v>
+        <v>6</v>
       </c>
       <c r="R6">
         <v>-5181</v>
@@ -1201,10 +1201,10 @@
         <v>0.00702</v>
       </c>
       <c r="P7">
-        <v>-10237</v>
+        <v>28</v>
       </c>
       <c r="Q7">
-        <v>-1563</v>
+        <v>4</v>
       </c>
       <c r="R7">
         <v>-318</v>
@@ -1324,10 +1324,10 @@
         <v>0.005144</v>
       </c>
       <c r="P8">
-        <v>-15044</v>
+        <v>41</v>
       </c>
       <c r="Q8">
-        <v>-197</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>-4570</v>
@@ -1447,10 +1447,10 @@
         <v>0.028663</v>
       </c>
       <c r="P9">
-        <v>-14300</v>
+        <v>39</v>
       </c>
       <c r="Q9">
-        <v>-1264</v>
+        <v>3</v>
       </c>
       <c r="R9">
         <v>-3049</v>
@@ -1570,10 +1570,10 @@
         <v>0.02461</v>
       </c>
       <c r="P10">
-        <v>-13529</v>
+        <v>37</v>
       </c>
       <c r="Q10">
-        <v>-3764</v>
+        <v>10</v>
       </c>
       <c r="R10">
         <v>-7014</v>
@@ -1688,10 +1688,10 @@
         <v>0.031329</v>
       </c>
       <c r="P11">
-        <v>-10128</v>
+        <v>27</v>
       </c>
       <c r="Q11">
-        <v>-3090</v>
+        <v>8</v>
       </c>
       <c r="R11">
         <v>-857</v>
@@ -1811,10 +1811,10 @@
         <v>0.026392</v>
       </c>
       <c r="P12">
-        <v>-11944</v>
+        <v>32</v>
       </c>
       <c r="Q12">
-        <v>-3319</v>
+        <v>9</v>
       </c>
       <c r="R12">
         <v>-1295</v>
@@ -1934,10 +1934,10 @@
         <v>0.031329</v>
       </c>
       <c r="P13">
-        <v>-17541</v>
+        <v>48</v>
       </c>
       <c r="Q13">
-        <v>-789</v>
+        <v>2</v>
       </c>
       <c r="R13">
         <v>-7174</v>
@@ -2057,10 +2057,10 @@
         <v>0.028663</v>
       </c>
       <c r="P14">
-        <v>-13773</v>
+        <v>37</v>
       </c>
       <c r="Q14">
-        <v>-4381</v>
+        <v>12</v>
       </c>
       <c r="R14">
         <v>-6268</v>
@@ -2180,10 +2180,10 @@
         <v>0.026392</v>
       </c>
       <c r="P15">
-        <v>-9979</v>
+        <v>27</v>
       </c>
       <c r="Q15">
-        <v>-957</v>
+        <v>2</v>
       </c>
       <c r="R15">
         <v>-1522</v>
@@ -2303,10 +2303,10 @@
         <v>0.011703</v>
       </c>
       <c r="P16">
-        <v>-15911</v>
+        <v>43</v>
       </c>
       <c r="Q16">
-        <v>365243</v>
+        <v>12</v>
       </c>
       <c r="R16">
         <v>-10053</v>
@@ -2421,10 +2421,10 @@
         <v>0.018029</v>
       </c>
       <c r="P17">
-        <v>-14740</v>
+        <v>40</v>
       </c>
       <c r="Q17">
-        <v>-430</v>
+        <v>1</v>
       </c>
       <c r="R17">
         <v>-1897</v>
@@ -2544,10 +2544,10 @@
         <v>0.019689</v>
       </c>
       <c r="P18">
-        <v>-15117</v>
+        <v>41</v>
       </c>
       <c r="Q18">
-        <v>-1441</v>
+        <v>3</v>
       </c>
       <c r="R18">
         <v>-7308</v>
@@ -2662,10 +2662,10 @@
         <v>0.016612</v>
       </c>
       <c r="P19">
-        <v>-12852</v>
+        <v>35</v>
       </c>
       <c r="Q19">
-        <v>-1367</v>
+        <v>3</v>
       </c>
       <c r="R19">
         <v>-610</v>
@@ -2785,10 +2785,10 @@
         <v>0.020246</v>
       </c>
       <c r="P20">
-        <v>-15469</v>
+        <v>42</v>
       </c>
       <c r="Q20">
-        <v>-7210</v>
+        <v>19</v>
       </c>
       <c r="R20">
         <v>-523</v>
@@ -2908,10 +2908,10 @@
         <v>0.003818</v>
       </c>
       <c r="P21">
-        <v>-14643</v>
+        <v>40</v>
       </c>
       <c r="Q21">
-        <v>-164</v>
+        <v>0</v>
       </c>
       <c r="R21">
         <v>-5117</v>
@@ -3031,10 +3031,10 @@
         <v>0.018209</v>
       </c>
       <c r="P22">
-        <v>-14733</v>
+        <v>40</v>
       </c>
       <c r="Q22">
-        <v>-1121</v>
+        <v>3</v>
       </c>
       <c r="R22">
         <v>-5195</v>
@@ -3154,10 +3154,10 @@
         <v>0.04622</v>
       </c>
       <c r="P23">
-        <v>-16775</v>
+        <v>45</v>
       </c>
       <c r="Q23">
-        <v>-10178</v>
+        <v>27</v>
       </c>
       <c r="R23">
         <v>-7361</v>
@@ -3277,10 +3277,10 @@
         <v>0.020713</v>
       </c>
       <c r="P24">
-        <v>-14288</v>
+        <v>39</v>
       </c>
       <c r="Q24">
-        <v>-1364</v>
+        <v>3</v>
       </c>
       <c r="R24">
         <v>-3180</v>
@@ -3400,10 +3400,10 @@
         <v>0.008019</v>
       </c>
       <c r="P25">
-        <v>-9421</v>
+        <v>25</v>
       </c>
       <c r="Q25">
-        <v>-1965</v>
+        <v>5</v>
       </c>
       <c r="R25">
         <v>-541</v>
@@ -3523,10 +3523,10 @@
         <v>0.010032</v>
       </c>
       <c r="P26">
-        <v>-13856</v>
+        <v>37</v>
       </c>
       <c r="Q26">
-        <v>-1641</v>
+        <v>4</v>
       </c>
       <c r="R26">
         <v>-7190</v>
@@ -3646,10 +3646,10 @@
         <v>0.019101</v>
       </c>
       <c r="P27">
-        <v>-16176</v>
+        <v>44</v>
       </c>
       <c r="Q27">
-        <v>-1938</v>
+        <v>5</v>
       </c>
       <c r="R27">
         <v>-977</v>
@@ -3769,10 +3769,10 @@
         <v>0.006007999999999999</v>
       </c>
       <c r="P28">
-        <v>-13027</v>
+        <v>35</v>
       </c>
       <c r="Q28">
-        <v>-2956</v>
+        <v>8</v>
       </c>
       <c r="R28">
         <v>-4898</v>
@@ -3892,10 +3892,10 @@
         <v>0.020246</v>
       </c>
       <c r="P29">
-        <v>-17782</v>
+        <v>48</v>
       </c>
       <c r="Q29">
-        <v>-270</v>
+        <v>0</v>
       </c>
       <c r="R29">
         <v>-5386</v>
@@ -4015,10 +4015,10 @@
         <v>0.031329</v>
       </c>
       <c r="P30">
-        <v>-14119</v>
+        <v>38</v>
       </c>
       <c r="Q30">
-        <v>-4784</v>
+        <v>13</v>
       </c>
       <c r="R30">
         <v>-4084</v>
@@ -4138,10 +4138,10 @@
         <v>0.01885</v>
       </c>
       <c r="P31">
-        <v>-15036</v>
+        <v>41</v>
       </c>
       <c r="Q31">
-        <v>-1038</v>
+        <v>2</v>
       </c>
       <c r="R31">
         <v>-4409</v>
@@ -4261,10 +4261,10 @@
         <v>0.026392</v>
       </c>
       <c r="P32">
-        <v>-11391</v>
+        <v>31</v>
       </c>
       <c r="Q32">
-        <v>-401</v>
+        <v>1</v>
       </c>
       <c r="R32">
         <v>-199</v>
@@ -4384,10 +4384,10 @@
         <v>0.020713</v>
       </c>
       <c r="P33">
-        <v>-12518</v>
+        <v>34</v>
       </c>
       <c r="Q33">
-        <v>-1135</v>
+        <v>3</v>
       </c>
       <c r="R33">
         <v>-4229</v>
@@ -4507,10 +4507,10 @@
         <v>0.030755</v>
       </c>
       <c r="P34">
-        <v>-13583</v>
+        <v>37</v>
       </c>
       <c r="Q34">
-        <v>-316</v>
+        <v>0</v>
       </c>
       <c r="R34">
         <v>-7715</v>
@@ -4630,10 +4630,10 @@
         <v>0.006670999999999999</v>
       </c>
       <c r="P35">
-        <v>-15559</v>
+        <v>42</v>
       </c>
       <c r="Q35">
-        <v>-3338</v>
+        <v>9</v>
       </c>
       <c r="R35">
         <v>-2862</v>
@@ -4753,10 +4753,10 @@
         <v>0.018801</v>
       </c>
       <c r="P36">
-        <v>-16703</v>
+        <v>45</v>
       </c>
       <c r="Q36">
-        <v>-3829</v>
+        <v>10</v>
       </c>
       <c r="R36">
         <v>-7871</v>
@@ -4871,10 +4871,10 @@
         <v>0.020246</v>
       </c>
       <c r="P37">
-        <v>-13350</v>
+        <v>36</v>
       </c>
       <c r="Q37">
-        <v>-459</v>
+        <v>1</v>
       </c>
       <c r="R37">
         <v>-2535</v>
@@ -4994,10 +4994,10 @@
         <v>0.018029</v>
       </c>
       <c r="P38">
-        <v>-14163</v>
+        <v>38</v>
       </c>
       <c r="Q38">
-        <v>-1834</v>
+        <v>5</v>
       </c>
       <c r="R38">
         <v>-4346</v>
@@ -5117,10 +5117,10 @@
         <v>0.006305</v>
       </c>
       <c r="P39">
-        <v>-13634</v>
+        <v>37</v>
       </c>
       <c r="Q39">
-        <v>-6495</v>
+        <v>17</v>
       </c>
       <c r="R39">
         <v>-3294</v>
@@ -5240,10 +5240,10 @@
         <v>0.010643</v>
       </c>
       <c r="P40">
-        <v>-10442</v>
+        <v>28</v>
       </c>
       <c r="Q40">
-        <v>-334</v>
+        <v>0</v>
       </c>
       <c r="R40">
         <v>-5317</v>
@@ -5363,10 +5363,10 @@
         <v>0.001333</v>
       </c>
       <c r="P41">
-        <v>-15551</v>
+        <v>42</v>
       </c>
       <c r="Q41">
-        <v>-8478</v>
+        <v>23</v>
       </c>
       <c r="R41">
         <v>-5626</v>
@@ -5486,10 +5486,10 @@
         <v>0.008473999999999999</v>
       </c>
       <c r="P42">
-        <v>-11826</v>
+        <v>32</v>
       </c>
       <c r="Q42">
-        <v>-1129</v>
+        <v>3</v>
       </c>
       <c r="R42">
         <v>-3392</v>
@@ -5609,10 +5609,10 @@
         <v>0.006305</v>
       </c>
       <c r="P43">
-        <v>-12797</v>
+        <v>35</v>
       </c>
       <c r="Q43">
-        <v>-1861</v>
+        <v>5</v>
       </c>
       <c r="R43">
         <v>-4037</v>
@@ -5732,10 +5732,10 @@
         <v>0.006207</v>
       </c>
       <c r="P44">
-        <v>-15378</v>
+        <v>42</v>
       </c>
       <c r="Q44">
-        <v>-2843</v>
+        <v>7</v>
       </c>
       <c r="R44">
         <v>-5933</v>
@@ -5855,10 +5855,10 @@
         <v>0.020713</v>
       </c>
       <c r="P45">
-        <v>-15760</v>
+        <v>43</v>
       </c>
       <c r="Q45">
-        <v>-4658</v>
+        <v>12</v>
       </c>
       <c r="R45">
         <v>-2723</v>
@@ -5973,10 +5973,10 @@
         <v>0.007114</v>
       </c>
       <c r="P46">
-        <v>-11165</v>
+        <v>30</v>
       </c>
       <c r="Q46">
-        <v>-511</v>
+        <v>1</v>
       </c>
       <c r="R46">
         <v>-3823</v>
@@ -6096,10 +6096,10 @@
         <v>0.009656999999999999</v>
       </c>
       <c r="P47">
-        <v>-11873</v>
+        <v>32</v>
       </c>
       <c r="Q47">
-        <v>-1430</v>
+        <v>3</v>
       </c>
       <c r="R47">
         <v>-464</v>
@@ -6219,10 +6219,10 @@
         <v>0.01885</v>
       </c>
       <c r="P48">
-        <v>-16228</v>
+        <v>44</v>
       </c>
       <c r="Q48">
-        <v>-9178</v>
+        <v>25</v>
       </c>
       <c r="R48">
         <v>-5233</v>
@@ -6342,10 +6342,10 @@
         <v>0.020246</v>
       </c>
       <c r="P49">
-        <v>-10775</v>
+        <v>29</v>
       </c>
       <c r="Q49">
-        <v>-1031</v>
+        <v>2</v>
       </c>
       <c r="R49">
         <v>-2341</v>
@@ -6460,10 +6460,10 @@
         <v>0.028663</v>
       </c>
       <c r="P50">
-        <v>-10568</v>
+        <v>28</v>
       </c>
       <c r="Q50">
-        <v>-1561</v>
+        <v>4</v>
       </c>
       <c r="R50">
         <v>-3207</v>
@@ -6583,10 +6583,10 @@
         <v>0.018801</v>
       </c>
       <c r="P51">
-        <v>-11166</v>
+        <v>30</v>
       </c>
       <c r="Q51">
-        <v>-1110</v>
+        <v>3</v>
       </c>
       <c r="R51">
         <v>-4567</v>
@@ -6706,10 +6706,10 @@
         <v>0.016612</v>
       </c>
       <c r="P52">
-        <v>-12334</v>
+        <v>33</v>
       </c>
       <c r="Q52">
-        <v>-460</v>
+        <v>1</v>
       </c>
       <c r="R52">
         <v>-17</v>
@@ -6829,10 +6829,10 @@
         <v>0.032561</v>
       </c>
       <c r="P53">
-        <v>-15681</v>
+        <v>42</v>
       </c>
       <c r="Q53">
-        <v>-3294</v>
+        <v>9</v>
       </c>
       <c r="R53">
         <v>-9801</v>
@@ -6952,10 +6952,10 @@
         <v>0.028663</v>
       </c>
       <c r="P54">
-        <v>-8747</v>
+        <v>23</v>
       </c>
       <c r="Q54">
-        <v>-574</v>
+        <v>1</v>
       </c>
       <c r="R54">
         <v>-191</v>
@@ -7070,10 +7070,10 @@
         <v>0.026392</v>
       </c>
       <c r="P55">
-        <v>-10405</v>
+        <v>28</v>
       </c>
       <c r="Q55">
-        <v>-1268</v>
+        <v>3</v>
       </c>
       <c r="R55">
         <v>-552</v>
@@ -7193,10 +7193,10 @@
         <v>0.010643</v>
       </c>
       <c r="P56">
-        <v>-12019</v>
+        <v>32</v>
       </c>
       <c r="Q56">
-        <v>-3630</v>
+        <v>9</v>
       </c>
       <c r="R56">
         <v>-2466</v>
@@ -7311,10 +7311,10 @@
         <v>0.0105</v>
       </c>
       <c r="P57">
-        <v>-18910</v>
+        <v>51</v>
       </c>
       <c r="Q57">
-        <v>-4183</v>
+        <v>11</v>
       </c>
       <c r="R57">
         <v>-3677</v>
@@ -7434,10 +7434,10 @@
         <v>0.009175000000000001</v>
       </c>
       <c r="P58">
-        <v>-14660</v>
+        <v>40</v>
       </c>
       <c r="Q58">
-        <v>-408</v>
+        <v>1</v>
       </c>
       <c r="R58">
         <v>-1613</v>
@@ -7557,10 +7557,10 @@
         <v>0.020246</v>
       </c>
       <c r="P59">
-        <v>-16864</v>
+        <v>46</v>
       </c>
       <c r="Q59">
-        <v>-519</v>
+        <v>1</v>
       </c>
       <c r="R59">
         <v>-1737</v>
@@ -7680,10 +7680,10 @@
         <v>0.019689</v>
       </c>
       <c r="P60">
-        <v>-13171</v>
+        <v>36</v>
       </c>
       <c r="Q60">
-        <v>-3952</v>
+        <v>10</v>
       </c>
       <c r="R60">
         <v>-6616</v>
